--- a/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-inbound.xlsx
+++ b/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-inbound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pagero-my.sharepoint.com/personal/johnny_olsson_pagero_com/Documents/Skrivbordet/Kunder/_US X12 package/IntToExt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\format\integration-resources\format-specifications\ansi-x12\4010\810\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{8A430393-9C83-4FA3-B7EF-49FC47F4D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BA91CF-2492-4430-875C-E5322E09CD9E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D7A14-26AF-4475-9D22-7140F20EFBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="573">
   <si>
     <t>Responsible</t>
   </si>
@@ -1743,6 +1743,49 @@
   </si>
   <si>
     <t xml:space="preserve"> 'IA' as fixed value</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     N901</t>
+  </si>
+  <si>
+    <t>Reference Identification Qualifier</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L1 Letters or Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     N902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEN</t>
+  </si>
+  <si>
+    <t>-"GEN" to identify that the type of note to follow in MSG01 is a General Note.
+. "SHP" to identify Inco Terms listed in the FOB group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     MSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          MSG01</t>
+  </si>
+  <si>
+    <t>Free-Form Message Text</t>
+  </si>
+  <si>
+    <t>1/264</t>
+  </si>
+  <si>
+    <t>N9*L1*GEN~</t>
+  </si>
+  <si>
+    <t>MSG*Free text data information~</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2010,6 +2053,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2024,7 +2104,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2044,51 +2124,50 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2098,12 +2177,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2113,35 +2186,35 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2149,9 +2222,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2179,24 +2249,8 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2206,54 +2260,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -2329,6 +2347,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -2341,80 +2422,27 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2441,26 +2469,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2907,7 +2941,7 @@
       <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>215</v>
       </c>
       <c r="D3" s="21"/>
@@ -2955,90 +2989,90 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3050,18 +3084,18 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3079,7 +3113,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="2"/>
@@ -3185,4547 +3219,4653 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="34" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="42" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="46" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="43" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="50"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="118" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="50"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>479</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>142</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="35" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>124</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="28" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>29</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>30</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>28</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>455</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>480</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="108" t="s">
         <v>312</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="135"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>143</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>329</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="135"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="75"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52" t="s">
+      <c r="B40" s="48"/>
+      <c r="C40" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="50"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="65">
+      <c r="B41" s="32">
         <v>373</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="34" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="65">
+      <c r="B42" s="32">
         <v>76</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="34" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="65">
+      <c r="B43" s="32">
         <v>373</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="67" t="s">
+      <c r="E43" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="G43" s="75"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="65">
+      <c r="B44" s="32">
         <v>324</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="34" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="65">
+      <c r="B45" s="32">
         <v>328</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E45" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="75" t="s">
+      <c r="F45" s="34"/>
+      <c r="G45" s="28" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B46" s="65">
+      <c r="B46" s="32">
         <v>327</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="E46" s="67" t="s">
+      <c r="E46" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="F46" s="67"/>
-      <c r="G46" s="75" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="28" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="65">
+      <c r="B47" s="32">
         <v>640</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="E47" s="67" t="s">
+      <c r="E47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="G47" s="79" t="s">
+      <c r="G47" s="29" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="B48" s="65">
+      <c r="B48" s="32">
         <v>353</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="75" t="s">
+      <c r="G48" s="28" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="B49" s="65">
+      <c r="B49" s="32">
         <v>306</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="28" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="B50" s="65">
+      <c r="B50" s="32">
         <v>74</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="67" t="s">
+      <c r="F50" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="G50" s="78" t="s">
+      <c r="G50" s="64" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="76" t="s">
+      <c r="A51" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B51" s="128" t="s">
+      <c r="B51" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="135"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="122"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="128" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="135"/>
-    </row>
-    <row r="53" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="29"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="122"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="72" t="s">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="80"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="67">
         <v>98</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="67" t="s">
+      <c r="F55" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G55" s="85" t="s">
+      <c r="G55" s="68" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="67">
         <v>100</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="E56" s="86" t="s">
+      <c r="E56" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="67" t="s">
+      <c r="F56" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="G56" s="83"/>
+      <c r="G56" s="66"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B57" s="70">
         <v>280</v>
       </c>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="89" t="s">
+      <c r="D57" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="92" t="s">
+      <c r="F57" s="74"/>
+      <c r="G57" s="75" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="B58" s="87">
+      <c r="B58" s="70">
         <v>98</v>
       </c>
-      <c r="C58" s="88" t="s">
+      <c r="C58" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="89" t="s">
+      <c r="D58" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="91"/>
-      <c r="G58" s="92"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="B59" s="87">
+      <c r="B59" s="70">
         <v>100</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="83" t="s">
+      <c r="D59" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="67" t="s">
+      <c r="F59" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="G59" s="92" t="s">
+      <c r="G59" s="75" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="B60" s="87">
+      <c r="B60" s="70">
         <v>669</v>
       </c>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="71" t="s">
         <v>115</v>
       </c>
       <c r="D60" t="s">
         <v>408</v>
       </c>
-      <c r="E60" s="86" t="s">
+      <c r="E60" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="91"/>
-      <c r="G60" s="92"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="75"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="B61" s="87">
+      <c r="B61" s="70">
         <v>374</v>
       </c>
-      <c r="C61" s="84" t="s">
+      <c r="C61" s="67" t="s">
         <v>115</v>
       </c>
       <c r="D61" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="86" t="s">
+      <c r="E61" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="G61" s="75" t="s">
+      <c r="G61" s="28" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="B62" s="87">
+      <c r="B62" s="70">
         <v>337</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="67" t="s">
         <v>115</v>
       </c>
       <c r="D62" t="s">
         <v>413</v>
       </c>
-      <c r="E62" s="67" t="s">
+      <c r="E62" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F62" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="G62" s="75" t="s">
+      <c r="G62" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B63" s="136" t="s">
+      <c r="B63" s="123" t="s">
         <v>415</v>
       </c>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="93" t="s">
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="76" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="63" t="s">
         <v>417</v>
       </c>
-      <c r="B64" s="138" t="s">
+      <c r="B64" s="125" t="s">
         <v>418</v>
       </c>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="135"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="122"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="76"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="96"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="79"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="80" t="s">
+      <c r="A66" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="B67" s="54">
+      <c r="B67" s="51">
         <v>128</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="E67" s="54" t="s">
+      <c r="E67" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="G67" s="61" t="s">
+      <c r="G67" s="57" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B68" s="54">
+      <c r="B68" s="51">
         <v>127</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E68" s="54" t="s">
+      <c r="E68" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="51">
         <v>11</v>
       </c>
-      <c r="G68" s="61" t="s">
+      <c r="G68" s="57" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="76" t="s">
+      <c r="A69" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B69" s="128" t="s">
+      <c r="B69" s="108" t="s">
         <v>316</v>
       </c>
-      <c r="C69" s="134"/>
-      <c r="D69" s="134"/>
-      <c r="E69" s="134"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="135"/>
+      <c r="C69" s="121"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="122"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="53"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="61"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="57"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="54">
+      <c r="B72" s="51">
         <v>128</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="54" t="s">
+      <c r="F72" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="G72" s="61" t="s">
+      <c r="G72" s="57" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B73" s="54">
+      <c r="B73" s="51">
         <v>127</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E73" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="51">
         <v>111111111</v>
       </c>
-      <c r="G73" s="61" t="s">
+      <c r="G73" s="57" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="76" t="s">
+      <c r="A74" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B74" s="128" t="s">
+      <c r="B74" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="135"/>
+      <c r="C74" s="121"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="122"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="61"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="57"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="B77" s="54">
+      <c r="B77" s="51">
         <v>128</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D77" s="53" t="s">
+      <c r="D77" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="G77" s="61" t="s">
+      <c r="G77" s="57" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="54">
+      <c r="B78" s="51">
         <v>127</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="G78" s="61" t="s">
+      <c r="G78" s="57" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B79" s="128" t="s">
+      <c r="B79" s="108" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="134"/>
-      <c r="D79" s="134"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="135"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="122"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="39"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="80" t="s">
+      <c r="A81" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="B82" s="54">
+      <c r="B82" s="51">
         <v>128</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D82" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="G82" s="61" t="s">
+      <c r="G82" s="57" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B83" s="54">
+      <c r="B83" s="51">
         <v>127</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D83" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E83" s="54" t="s">
+      <c r="E83" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="F83" s="54" t="s">
+      <c r="F83" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="G83" s="61" t="s">
+      <c r="G83" s="57" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B84" s="128" t="s">
+      <c r="B84" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="135"/>
-    </row>
-    <row r="85" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="29"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="29"/>
-    </row>
-    <row r="86" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="41"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="122"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="28"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="28"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="39"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="72" t="s">
+      <c r="B87" s="48"/>
+      <c r="C87" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="80" t="s">
+      <c r="D87" s="47"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="47" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="75" t="s">
+      <c r="A88" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="B88" s="65">
+      <c r="B88" s="32">
         <v>366</v>
       </c>
-      <c r="C88" s="77" t="s">
+      <c r="C88" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="75" t="s">
+      <c r="D88" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="E88" s="67" t="s">
+      <c r="E88" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="67" t="s">
+      <c r="F88" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="G88" s="97" t="s">
+      <c r="G88" s="80" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="B89" s="65">
+      <c r="B89" s="32">
         <v>93</v>
       </c>
-      <c r="C89" s="77" t="s">
+      <c r="C89" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="75" t="s">
+      <c r="D89" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="67" t="s">
+      <c r="E89" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F89" s="67" t="s">
+      <c r="F89" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="G89" s="75"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="B90" s="65">
+      <c r="B90" s="32">
         <v>365</v>
       </c>
-      <c r="C90" s="77" t="s">
+      <c r="C90" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="75" t="s">
+      <c r="D90" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="E90" s="67" t="s">
+      <c r="E90" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="G90" s="97" t="s">
+      <c r="G90" s="80" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="B91" s="65">
+      <c r="B91" s="32">
         <v>364</v>
       </c>
-      <c r="C91" s="77" t="s">
+      <c r="C91" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D91" s="75" t="s">
+      <c r="D91" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="E91" s="67" t="s">
+      <c r="E91" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="67" t="s">
+      <c r="F91" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="G91" s="75"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="B92" s="65">
+      <c r="B92" s="32">
         <v>365</v>
       </c>
-      <c r="C92" s="77" t="s">
+      <c r="C92" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="E92" s="67" t="s">
+      <c r="E92" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="G92" s="97" t="s">
+      <c r="G92" s="80" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="B93" s="65">
+      <c r="B93" s="32">
         <v>364</v>
       </c>
-      <c r="C93" s="77" t="s">
+      <c r="C93" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="75" t="s">
+      <c r="D93" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="E93" s="67" t="s">
+      <c r="E93" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F93" s="67" t="s">
+      <c r="F93" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="G93" s="75"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="76" t="s">
+      <c r="A94" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B94" s="128" t="s">
+      <c r="B94" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="C94" s="129"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="129"/>
-      <c r="F94" s="129"/>
-      <c r="G94" s="130"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="110"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="75"/>
-      <c r="B95" s="128" t="s">
+      <c r="A95" s="28"/>
+      <c r="B95" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="129"/>
-      <c r="D95" s="129"/>
-      <c r="E95" s="129"/>
-      <c r="F95" s="129"/>
-      <c r="G95" s="130"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="109"/>
+      <c r="E95" s="109"/>
+      <c r="F95" s="109"/>
+      <c r="G95" s="110"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="75"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="100"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="83"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="51"/>
-      <c r="C97" s="52" t="s">
+      <c r="B97" s="48"/>
+      <c r="C97" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="50"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="47"/>
     </row>
     <row r="98" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B98" s="32">
         <v>98</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="35" t="s">
+      <c r="E98" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F98" s="67" t="s">
+      <c r="F98" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="G98" s="75" t="s">
+      <c r="G98" s="28" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="33">
+      <c r="B99" s="32">
         <v>93</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="E99" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="67" t="s">
+      <c r="F99" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="G99" s="29"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>66</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E100" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="67" t="s">
+      <c r="F100" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="G100" s="75" t="s">
+      <c r="G100" s="28" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="43">
+      <c r="B101" s="40">
         <v>67</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D101" s="42" t="s">
+      <c r="D101" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="F101" s="64" t="s">
+      <c r="F101" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="G101" s="42"/>
+      <c r="G101" s="39"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="51"/>
-      <c r="C102" s="52" t="s">
+      <c r="B102" s="48"/>
+      <c r="C102" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="50"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="47"/>
     </row>
     <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="33">
+      <c r="B103" s="32">
         <v>93</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F103" s="67" t="s">
+      <c r="F103" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G103" s="28" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="51"/>
-      <c r="C104" s="52" t="s">
+      <c r="B104" s="48"/>
+      <c r="C104" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="50"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="47"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="43">
+      <c r="B105" s="40">
         <v>166</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="39" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43" t="s">
+      <c r="B106" s="40"/>
+      <c r="C106" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="42" t="s">
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="39" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B107" s="51"/>
-      <c r="C107" s="52" t="s">
+      <c r="B107" s="48"/>
+      <c r="C107" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="50"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="50"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="47"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="33">
+      <c r="B108" s="32">
         <v>19</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F108" s="67" t="s">
+      <c r="F108" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="G108" s="29"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="33">
+      <c r="B109" s="32">
         <v>156</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="D109" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="28" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="33">
+      <c r="B110" s="32">
         <v>116</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F110" s="67" t="s">
+      <c r="F110" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="G110" s="29"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="33">
+      <c r="B111" s="32">
         <v>116</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F111" s="67" t="s">
+      <c r="F111" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="G111" s="29"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B112" s="139" t="s">
+      <c r="B112" s="115" t="s">
         <v>322</v>
       </c>
-      <c r="C112" s="140"/>
-      <c r="D112" s="140"/>
-      <c r="E112" s="140"/>
-      <c r="F112" s="140"/>
-      <c r="G112" s="141"/>
+      <c r="C112" s="116"/>
+      <c r="D112" s="116"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
+      <c r="G112" s="117"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="42"/>
-      <c r="B113" s="139" t="s">
+      <c r="A113" s="39"/>
+      <c r="B113" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="140"/>
-      <c r="D113" s="140"/>
-      <c r="E113" s="140"/>
-      <c r="F113" s="140"/>
-      <c r="G113" s="141"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="116"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
+      <c r="G113" s="117"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="42"/>
-      <c r="B114" s="139" t="s">
+      <c r="A114" s="39"/>
+      <c r="B114" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="140"/>
-      <c r="D114" s="140"/>
-      <c r="E114" s="140"/>
-      <c r="F114" s="140"/>
-      <c r="G114" s="141"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
+      <c r="G114" s="117"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="42"/>
-      <c r="B115" s="139" t="s">
+      <c r="A115" s="39"/>
+      <c r="B115" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="140"/>
-      <c r="D115" s="140"/>
-      <c r="E115" s="140"/>
-      <c r="F115" s="140"/>
-      <c r="G115" s="141"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="116"/>
+      <c r="G115" s="117"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="42"/>
-      <c r="B116" s="139" t="s">
+      <c r="A116" s="39"/>
+      <c r="B116" s="115" t="s">
         <v>326</v>
       </c>
-      <c r="C116" s="140"/>
-      <c r="D116" s="140"/>
-      <c r="E116" s="140"/>
-      <c r="F116" s="140"/>
-      <c r="G116" s="141"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="116"/>
+      <c r="G116" s="117"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="42"/>
-      <c r="B117" s="139" t="s">
+      <c r="A117" s="39"/>
+      <c r="B117" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="C117" s="140"/>
-      <c r="D117" s="140"/>
-      <c r="E117" s="140"/>
-      <c r="F117" s="140"/>
-      <c r="G117" s="141"/>
+      <c r="C117" s="116"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="116"/>
+      <c r="F117" s="116"/>
+      <c r="G117" s="117"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="42"/>
-      <c r="B118" s="139" t="s">
+      <c r="A118" s="39"/>
+      <c r="B118" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="C118" s="140"/>
-      <c r="D118" s="140"/>
-      <c r="E118" s="140"/>
-      <c r="F118" s="140"/>
-      <c r="G118" s="141"/>
+      <c r="C118" s="116"/>
+      <c r="D118" s="116"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
+      <c r="G118" s="117"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="42"/>
-      <c r="B119" s="139" t="s">
+      <c r="A119" s="39"/>
+      <c r="B119" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="C119" s="140"/>
-      <c r="D119" s="140"/>
-      <c r="E119" s="140"/>
-      <c r="F119" s="140"/>
-      <c r="G119" s="141"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
+      <c r="G119" s="117"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="42"/>
-      <c r="B120" s="139" t="s">
+      <c r="A120" s="39"/>
+      <c r="B120" s="115" t="s">
         <v>456</v>
       </c>
-      <c r="C120" s="140"/>
-      <c r="D120" s="140"/>
-      <c r="E120" s="140"/>
-      <c r="F120" s="140"/>
-      <c r="G120" s="141"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="117"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="75"/>
-      <c r="B121" s="128" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="C121" s="129"/>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
-      <c r="F121" s="129"/>
-      <c r="G121" s="130"/>
+      <c r="C121" s="109"/>
+      <c r="D121" s="109"/>
+      <c r="E121" s="109"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="110"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="75"/>
-      <c r="B122" s="128" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="C122" s="129"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
-      <c r="F122" s="129"/>
-      <c r="G122" s="130"/>
+      <c r="C122" s="109"/>
+      <c r="D122" s="109"/>
+      <c r="E122" s="109"/>
+      <c r="F122" s="109"/>
+      <c r="G122" s="110"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="75"/>
-      <c r="B123" s="128" t="s">
+      <c r="A123" s="28"/>
+      <c r="B123" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="C123" s="129"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
-      <c r="F123" s="129"/>
-      <c r="G123" s="130"/>
+      <c r="C123" s="109"/>
+      <c r="D123" s="109"/>
+      <c r="E123" s="109"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="110"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="75"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="75"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="75"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="29"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="29"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B127" s="33">
+      <c r="B127" s="32">
         <v>336</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="E127" s="35" t="s">
+      <c r="E127" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="67" t="s">
+      <c r="F127" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="G127" s="75" t="s">
+      <c r="G127" s="28" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="33">
+      <c r="B128" s="32">
         <v>333</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="E128" s="35" t="s">
+      <c r="E128" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F128" s="67"/>
-      <c r="G128" s="75"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B129" s="33">
+      <c r="B129" s="32">
         <v>338</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="E129" s="35" t="s">
+      <c r="E129" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F129" s="67"/>
-      <c r="G129" s="75"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B130" s="33">
+      <c r="B130" s="32">
         <v>370</v>
       </c>
-      <c r="C130" s="34" t="s">
+      <c r="C130" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="29" t="s">
+      <c r="D130" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E130" s="35" t="s">
+      <c r="E130" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="75" t="s">
+      <c r="F130" s="40"/>
+      <c r="G130" s="28" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="B131" s="33">
+      <c r="B131" s="32">
         <v>351</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E131" s="35" t="s">
+      <c r="E131" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="F131" s="43"/>
-      <c r="G131" s="42"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="39"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B132" s="33">
+      <c r="B132" s="32">
         <v>446</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="E132" s="35" t="s">
+      <c r="E132" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F132" s="69" t="s">
+      <c r="F132" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="G132" s="75" t="s">
+      <c r="G132" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="B133" s="33">
+      <c r="B133" s="32">
         <v>384</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D133" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="E133" s="35" t="s">
+      <c r="E133" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="F133" s="67" t="s">
+      <c r="F133" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="G133" s="75" t="s">
+      <c r="G133" s="28" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B134" s="33">
+      <c r="B134" s="32">
         <v>362</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="E134" s="35" t="s">
+      <c r="E134" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F134" s="67"/>
-      <c r="G134" s="75"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B135" s="33">
+      <c r="B135" s="32">
         <v>388</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="E135" s="35" t="s">
+      <c r="E135" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F135" s="67"/>
-      <c r="G135" s="75" t="s">
+      <c r="F135" s="34"/>
+      <c r="G135" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B136" s="33">
+      <c r="B136" s="32">
         <v>389</v>
       </c>
-      <c r="C136" s="34" t="s">
+      <c r="C136" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E136" s="35" t="s">
+      <c r="E136" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F136" s="67"/>
-      <c r="G136" s="75"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B137" s="33">
+      <c r="B137" s="32">
         <v>342</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E137" s="35" t="s">
+      <c r="E137" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="67"/>
-      <c r="G137" s="75"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="75" t="s">
+      <c r="A138" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B138" s="65">
+      <c r="B138" s="32">
         <v>352</v>
       </c>
-      <c r="C138" s="77" t="s">
+      <c r="C138" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="67" t="s">
+      <c r="E138" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F138" s="67" t="s">
+      <c r="F138" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="G138" s="75" t="s">
+      <c r="G138" s="28" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="76" t="s">
+      <c r="A139" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B139" s="128" t="s">
+      <c r="B139" s="108" t="s">
         <v>332</v>
       </c>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="129"/>
-      <c r="G139" s="130"/>
+      <c r="C139" s="109"/>
+      <c r="D139" s="109"/>
+      <c r="E139" s="109"/>
+      <c r="F139" s="109"/>
+      <c r="G139" s="110"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="29"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="29"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="80" t="s">
+      <c r="A141" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="B141" s="80"/>
-      <c r="C141" s="72" t="s">
+      <c r="B141" s="47"/>
+      <c r="C141" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D141" s="80"/>
-      <c r="E141" s="80"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="80"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="75" t="s">
+      <c r="A142" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B142" s="65">
+      <c r="B142" s="32">
         <v>374</v>
       </c>
-      <c r="C142" s="77" t="s">
+      <c r="C142" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D142" s="75" t="s">
+      <c r="D142" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E142" s="67" t="s">
+      <c r="E142" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F142" s="67" t="s">
+      <c r="F142" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="G142" s="75" t="s">
+      <c r="G142" s="28" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="75" t="s">
+      <c r="A143" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B143" s="65">
+      <c r="B143" s="32">
         <v>373</v>
       </c>
-      <c r="C143" s="77" t="s">
+      <c r="C143" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D143" s="75" t="s">
+      <c r="D143" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E143" s="67" t="s">
+      <c r="E143" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F143" s="67" t="s">
+      <c r="F143" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G143" s="75" t="s">
+      <c r="G143" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="76" t="s">
+      <c r="A144" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B144" s="128" t="s">
+      <c r="B144" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="C144" s="129"/>
-      <c r="D144" s="129"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="129"/>
-      <c r="G144" s="130"/>
+      <c r="C144" s="109"/>
+      <c r="D144" s="109"/>
+      <c r="E144" s="109"/>
+      <c r="F144" s="109"/>
+      <c r="G144" s="110"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="75"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="75"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="75"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="80" t="s">
+      <c r="A146" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="B146" s="80"/>
-      <c r="C146" s="72" t="s">
+      <c r="B146" s="47"/>
+      <c r="C146" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="80"/>
-      <c r="E146" s="80"/>
-      <c r="F146" s="80"/>
-      <c r="G146" s="80"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
     </row>
     <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="75" t="s">
+      <c r="A147" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B147" s="65">
+      <c r="B147" s="32">
         <v>374</v>
       </c>
-      <c r="C147" s="77" t="s">
+      <c r="C147" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D147" s="75" t="s">
+      <c r="D147" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E147" s="67" t="s">
+      <c r="E147" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F147" s="67" t="s">
+      <c r="F147" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="G147" s="75" t="s">
+      <c r="G147" s="28" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="75" t="s">
+      <c r="A148" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B148" s="65">
+      <c r="B148" s="32">
         <v>373</v>
       </c>
-      <c r="C148" s="77" t="s">
+      <c r="C148" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D148" s="75" t="s">
+      <c r="D148" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="67" t="s">
+      <c r="E148" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F148" s="67" t="s">
+      <c r="F148" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G148" s="75" t="s">
+      <c r="G148" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="76" t="s">
+      <c r="A149" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B149" s="128" t="s">
+      <c r="B149" s="108" t="s">
         <v>479</v>
       </c>
-      <c r="C149" s="129"/>
-      <c r="D149" s="129"/>
-      <c r="E149" s="129"/>
-      <c r="F149" s="129"/>
-      <c r="G149" s="130"/>
+      <c r="C149" s="109"/>
+      <c r="D149" s="109"/>
+      <c r="E149" s="109"/>
+      <c r="F149" s="109"/>
+      <c r="G149" s="110"/>
     </row>
     <row r="150" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="75"/>
-      <c r="B150" s="65"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="75"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="80" t="s">
+      <c r="A151" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="B151" s="80"/>
-      <c r="C151" s="72" t="s">
+      <c r="B151" s="47"/>
+      <c r="C151" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D151" s="80"/>
-      <c r="E151" s="80"/>
-      <c r="F151" s="80"/>
-      <c r="G151" s="80"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="75" t="s">
+      <c r="A152" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="65">
+      <c r="B152" s="32">
         <v>374</v>
       </c>
-      <c r="C152" s="77" t="s">
+      <c r="C152" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D152" s="75" t="s">
+      <c r="D152" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E152" s="67" t="s">
+      <c r="E152" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F152" s="67" t="s">
+      <c r="F152" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="G152" s="75" t="s">
+      <c r="G152" s="28" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="75" t="s">
+      <c r="A153" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B153" s="65">
+      <c r="B153" s="32">
         <v>373</v>
       </c>
-      <c r="C153" s="77" t="s">
+      <c r="C153" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D153" s="75" t="s">
+      <c r="D153" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="67" t="s">
+      <c r="E153" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F153" s="67" t="s">
+      <c r="F153" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G153" s="75" t="s">
+      <c r="G153" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="B154" s="128" t="s">
+      <c r="B154" s="108" t="s">
         <v>479</v>
       </c>
-      <c r="C154" s="129"/>
-      <c r="D154" s="129"/>
-      <c r="E154" s="129"/>
-      <c r="F154" s="129"/>
-      <c r="G154" s="130"/>
+      <c r="C154" s="109"/>
+      <c r="D154" s="109"/>
+      <c r="E154" s="109"/>
+      <c r="F154" s="109"/>
+      <c r="G154" s="110"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="29"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="29"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="29"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="35"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="29"/>
+      <c r="A156" s="126" t="s">
+        <v>559</v>
+      </c>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="B157" s="32">
+        <v>128</v>
+      </c>
+      <c r="C157" s="33"/>
+      <c r="D157" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F157" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="G157" s="80" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A158" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="B158" s="32">
+        <v>127</v>
+      </c>
+      <c r="C158" s="33"/>
+      <c r="D158" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F158" s="60" t="s">
+        <v>565</v>
+      </c>
+      <c r="G158" s="127" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="B159" s="32"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="80"/>
+    </row>
+    <row r="160" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="B160" s="32">
+        <v>933</v>
+      </c>
+      <c r="C160" s="33"/>
+      <c r="D160" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="E160" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="G160" s="80"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="128" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" s="108" t="s">
+        <v>571</v>
+      </c>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="121"/>
+      <c r="G161" s="122"/>
+      <c r="H161" s="129"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="28"/>
+      <c r="B162" s="108" t="s">
+        <v>572</v>
+      </c>
+      <c r="C162" s="121"/>
+      <c r="D162" s="121"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="121"/>
+      <c r="G162" s="122"/>
+      <c r="H162" s="129"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="28"/>
+      <c r="B163" s="81"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="78"/>
+      <c r="E163" s="78"/>
+      <c r="F163" s="78"/>
+      <c r="G163" s="79"/>
+      <c r="H163" s="129"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B157" s="47"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="46"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="46"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="50" t="s">
+      <c r="B164" s="44"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="46"/>
+      <c r="F164" s="46"/>
+      <c r="G164" s="43"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="52" t="s">
+      <c r="B165" s="49"/>
+      <c r="C165" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="50"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="50"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="31" t="s">
+      <c r="D165" s="47"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="47"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B159" s="33">
+      <c r="B166" s="32">
         <v>350</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C166" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D166" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E159" s="35" t="s">
+      <c r="E166" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="F159" s="35"/>
-      <c r="G159" s="31"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="31" t="s">
+      <c r="F166" s="34"/>
+      <c r="G166" s="30"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="B160" s="43">
+      <c r="B167" s="40">
         <v>358</v>
       </c>
-      <c r="C160" s="43" t="s">
+      <c r="C167" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="42" t="s">
+      <c r="D167" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E160" s="44" t="s">
+      <c r="E167" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F160" s="44"/>
-      <c r="G160" s="42" t="s">
+      <c r="F167" s="41"/>
+      <c r="G167" s="39" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="31" t="s">
+    <row r="168" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B161" s="57">
+      <c r="B168" s="53">
         <v>355</v>
       </c>
-      <c r="C161" s="58" t="s">
+      <c r="C168" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="59" t="s">
+      <c r="D168" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E161" s="58" t="s">
+      <c r="E168" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F161" s="58"/>
-      <c r="G161" s="59" t="s">
+      <c r="F168" s="54"/>
+      <c r="G168" s="55" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="31" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="B162" s="54">
+      <c r="B169" s="51">
         <v>212</v>
       </c>
-      <c r="C162" s="54" t="s">
+      <c r="C169" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="53" t="s">
+      <c r="D169" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E162" s="54" t="s">
+      <c r="E169" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="F162" s="54"/>
-      <c r="G162" s="53" t="s">
+      <c r="F169" s="51"/>
+      <c r="G169" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="31" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B163" s="33">
+      <c r="B170" s="32">
         <v>639</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C170" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="31" t="s">
+      <c r="D170" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E163" s="35" t="s">
+      <c r="E170" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F163" s="35"/>
-      <c r="G163" s="31"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="31" t="s">
+      <c r="F170" s="34"/>
+      <c r="G170" s="30"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="B164" s="43">
+      <c r="B171" s="40">
         <v>235</v>
       </c>
-      <c r="C164" s="43" t="s">
+      <c r="C171" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="42" t="s">
+      <c r="D171" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="E164" s="43" t="s">
+      <c r="E171" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G164" s="56" t="s">
+      <c r="G171" s="52" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="31" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B165" s="43">
+      <c r="B172" s="40">
         <v>234</v>
       </c>
-      <c r="C165" s="43" t="s">
+      <c r="C172" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="42" t="s">
+      <c r="D172" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E165" s="43" t="s">
+      <c r="E172" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F165" s="43">
+      <c r="F172" s="40">
         <v>6008189</v>
       </c>
-      <c r="G165" s="42" t="s">
+      <c r="G172" s="39" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="31" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B166" s="43">
+      <c r="B173" s="40">
         <v>235</v>
       </c>
-      <c r="C166" s="43" t="s">
+      <c r="C173" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D166" s="42" t="s">
+      <c r="D173" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E166" s="43" t="s">
+      <c r="E173" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G166" s="56" t="s">
+      <c r="G173" s="52" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="31" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B167" s="43">
+      <c r="B174" s="40">
         <v>234</v>
       </c>
-      <c r="C167" s="43" t="s">
+      <c r="C174" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D167" s="42" t="s">
+      <c r="D174" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E167" s="43" t="s">
+      <c r="E174" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F167" s="43">
+      <c r="F174" s="40">
         <v>85899</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="31" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="B168" s="43">
+      <c r="B175" s="40">
         <v>235</v>
       </c>
-      <c r="C168" s="43" t="s">
+      <c r="C175" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D168" s="42" t="s">
+      <c r="D175" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E168" s="43" t="s">
+      <c r="E175" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G168" s="56" t="s">
+      <c r="G175" s="52" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="31" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B169" s="43">
+      <c r="B176" s="40">
         <v>234</v>
       </c>
-      <c r="C169" s="43" t="s">
+      <c r="C176" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D169" s="42" t="s">
+      <c r="D176" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E169" s="42" t="s">
+      <c r="E176" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F169" s="101">
+      <c r="F176" s="84">
         <v>12234</v>
       </c>
-      <c r="G169" s="42"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="62" t="s">
+      <c r="G176" s="39"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B170" s="142" t="s">
+      <c r="B177" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="C170" s="143"/>
-      <c r="D170" s="143"/>
-      <c r="E170" s="143"/>
-      <c r="F170" s="143"/>
-      <c r="G170" s="144"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="31"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="43"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="43"/>
-      <c r="G171" s="42"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="80" t="s">
+      <c r="C177" s="113"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="113"/>
+      <c r="F177" s="113"/>
+      <c r="G177" s="114"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="30"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="39"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="B172" s="80"/>
-      <c r="C172" s="72" t="s">
+      <c r="B179" s="47"/>
+      <c r="C179" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D172" s="80"/>
-      <c r="E172" s="80"/>
-      <c r="F172" s="80"/>
-      <c r="G172" s="80"/>
-    </row>
-    <row r="173" spans="1:7" s="108" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="68" t="s">
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+    </row>
+    <row r="180" spans="1:7" s="88" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A180" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="B173" s="65" t="s">
+      <c r="B180" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="C173" s="67" t="s">
+      <c r="C180" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D173" s="68" t="s">
+      <c r="D180" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="E173" s="68" t="s">
+      <c r="E180" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F173" s="67" t="s">
+      <c r="F180" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="G173" s="68" t="s">
+      <c r="G180" s="60" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="68" t="s">
+    <row r="181" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="B174" s="65" t="s">
+      <c r="B181" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="C174" s="67" t="s">
+      <c r="C181" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D174" s="68" t="s">
+      <c r="D181" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="E174" s="68" t="s">
+      <c r="E181" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="F174" s="67" t="s">
+      <c r="F181" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="G174" s="68" t="s">
+      <c r="G181" s="60" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="68" t="s">
+    <row r="182" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="B175" s="65" t="s">
+      <c r="B182" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="C175" s="67" t="s">
+      <c r="C182" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D175" s="68" t="s">
+      <c r="D182" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="E175" s="68" t="s">
+      <c r="E182" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F175" s="67" t="s">
+      <c r="F182" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="G175" s="68" t="s">
+      <c r="G182" s="60" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="68" t="s">
+    <row r="183" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="B176" s="65" t="s">
+      <c r="B183" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="C176" s="67" t="s">
+      <c r="C183" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D176" s="68" t="s">
+      <c r="D183" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="E176" s="68" t="s">
+      <c r="E183" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F176" s="67"/>
-    </row>
-    <row r="177" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="68" t="s">
+      <c r="F183" s="34"/>
+    </row>
+    <row r="184" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="B177" s="65" t="s">
+      <c r="B184" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="C177" s="67" t="s">
+      <c r="C184" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D177" s="68" t="s">
+      <c r="D184" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="E177" s="68" t="s">
+      <c r="E184" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68"/>
-    </row>
-    <row r="178" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="68" t="s">
+      <c r="F184" s="34"/>
+      <c r="G184" s="60"/>
+    </row>
+    <row r="185" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="B178" s="65" t="s">
+      <c r="B185" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="C178" s="67" t="s">
+      <c r="C185" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D178" s="68" t="s">
+      <c r="D185" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="E178" s="68" t="s">
+      <c r="E185" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F178" s="67"/>
-      <c r="G178" s="68"/>
-    </row>
-    <row r="179" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="68" t="s">
+      <c r="F185" s="34"/>
+      <c r="G185" s="60"/>
+    </row>
+    <row r="186" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="B179" s="65">
+      <c r="B186" s="32">
         <v>662</v>
       </c>
-      <c r="C179" s="67" t="s">
+      <c r="C186" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D179" s="68" t="s">
+      <c r="D186" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="E179" s="68" t="s">
+      <c r="E186" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F179" s="67"/>
-      <c r="G179" s="68"/>
-    </row>
-    <row r="180" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="68" t="s">
+      <c r="F186" s="34"/>
+      <c r="G186" s="60"/>
+    </row>
+    <row r="187" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B180" s="65">
+      <c r="B187" s="32">
         <v>828</v>
       </c>
-      <c r="C180" s="67" t="s">
+      <c r="C187" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D180" s="68" t="s">
+      <c r="D187" s="60" t="s">
         <v>514</v>
       </c>
-      <c r="E180" s="68" t="s">
+      <c r="E187" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F180" s="67" t="s">
+      <c r="F187" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="G180" s="68" t="s">
+      <c r="G187" s="60" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="62" t="s">
+    <row r="188" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B181" s="128" t="s">
+      <c r="B188" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="C181" s="129"/>
-      <c r="D181" s="129"/>
-      <c r="E181" s="129"/>
-      <c r="F181" s="129"/>
-      <c r="G181" s="130"/>
-    </row>
-    <row r="182" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="62"/>
-      <c r="B182" s="105"/>
-      <c r="C182" s="106"/>
-      <c r="D182" s="106"/>
-      <c r="E182" s="106"/>
-      <c r="F182" s="106"/>
-      <c r="G182" s="107"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="80" t="s">
+      <c r="C188" s="109"/>
+      <c r="D188" s="109"/>
+      <c r="E188" s="109"/>
+      <c r="F188" s="109"/>
+      <c r="G188" s="110"/>
+    </row>
+    <row r="189" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="58"/>
+      <c r="B189" s="81"/>
+      <c r="C189" s="82"/>
+      <c r="D189" s="82"/>
+      <c r="E189" s="82"/>
+      <c r="F189" s="82"/>
+      <c r="G189" s="83"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="B183" s="80"/>
-      <c r="C183" s="72" t="s">
+      <c r="B190" s="47"/>
+      <c r="C190" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="80"/>
-      <c r="E183" s="80"/>
-      <c r="F183" s="80"/>
-      <c r="G183" s="80"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="63" t="s">
+      <c r="D190" s="47"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="47"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B184" s="43">
+      <c r="B191" s="40">
         <v>687</v>
       </c>
-      <c r="C184" s="43" t="s">
+      <c r="C191" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D184" s="42" t="s">
+      <c r="D191" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E184" s="44" t="s">
+      <c r="E191" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F184" s="60"/>
-      <c r="G184" s="42"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="63" t="s">
+      <c r="F191" s="56"/>
+      <c r="G191" s="39"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B185" s="43">
+      <c r="B192" s="40">
         <v>236</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C192" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D185" s="42" t="s">
+      <c r="D192" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="E185" s="64" t="s">
+      <c r="E192" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F185" s="60" t="s">
+      <c r="F192" s="56" t="s">
         <v>527</v>
       </c>
-      <c r="G185" s="42" t="s">
+      <c r="G192" s="39" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="63" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="B186" s="43">
+      <c r="B193" s="40">
         <v>212</v>
       </c>
-      <c r="C186" s="43" t="s">
+      <c r="C193" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D186" s="42" t="s">
+      <c r="D193" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E186" s="44" t="s">
+      <c r="E193" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F186" s="60"/>
-      <c r="G186" s="42"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="63" t="s">
+      <c r="F193" s="56"/>
+      <c r="G193" s="39"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="B187" s="43">
+      <c r="B194" s="40">
         <v>380</v>
       </c>
-      <c r="C187" s="43" t="s">
+      <c r="C194" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D187" s="42" t="s">
+      <c r="D194" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="E187" s="44" t="s">
+      <c r="E194" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F187" s="60"/>
-      <c r="G187" s="42"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="63" t="s">
+      <c r="F194" s="56"/>
+      <c r="G194" s="39"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="B188" s="43">
+      <c r="B195" s="40">
         <v>355</v>
       </c>
-      <c r="C188" s="43" t="s">
+      <c r="C195" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D188" s="42" t="s">
+      <c r="D195" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E188" s="64" t="s">
+      <c r="E195" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F188" s="60"/>
-      <c r="G188" s="42"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="63" t="s">
+      <c r="F195" s="56"/>
+      <c r="G195" s="39"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="43">
+      <c r="B196" s="40">
         <v>648</v>
       </c>
-      <c r="C189" s="43" t="s">
+      <c r="C196" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D189" s="42" t="s">
+      <c r="D196" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="E189" s="64" t="s">
+      <c r="E196" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F189" s="60"/>
-      <c r="G189" s="42"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="63" t="s">
+      <c r="F196" s="56"/>
+      <c r="G196" s="39"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="B190" s="43">
+      <c r="B197" s="40">
         <v>649</v>
       </c>
-      <c r="C190" s="43" t="s">
+      <c r="C197" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D190" s="42" t="s">
+      <c r="D197" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="E190" s="44" t="s">
+      <c r="E197" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F190" s="60"/>
-      <c r="G190" s="42"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="63" t="s">
+      <c r="F197" s="56"/>
+      <c r="G197" s="39"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="30" t="s">
         <v>523</v>
       </c>
-      <c r="B191" s="43">
+      <c r="B198" s="40">
         <v>782</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C198" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="42" t="s">
+      <c r="D198" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="E191" s="64" t="s">
+      <c r="E198" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="F191" s="43" t="s">
+      <c r="F198" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="G191" s="42" t="s">
+      <c r="G198" s="39" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="62" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B192" s="142" t="s">
+      <c r="B199" s="112" t="s">
         <v>529</v>
       </c>
-      <c r="C192" s="143"/>
-      <c r="D192" s="143"/>
-      <c r="E192" s="143"/>
-      <c r="F192" s="143"/>
-      <c r="G192" s="144"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="62"/>
-      <c r="B193" s="102"/>
-      <c r="C193" s="103"/>
-      <c r="D193" s="103"/>
-      <c r="E193" s="103"/>
-      <c r="F193" s="103"/>
-      <c r="G193" s="104"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="80" t="s">
+      <c r="C199" s="113"/>
+      <c r="D199" s="113"/>
+      <c r="E199" s="113"/>
+      <c r="F199" s="113"/>
+      <c r="G199" s="114"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="58"/>
+      <c r="B200" s="85"/>
+      <c r="C200" s="86"/>
+      <c r="D200" s="86"/>
+      <c r="E200" s="86"/>
+      <c r="F200" s="86"/>
+      <c r="G200" s="87"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B194" s="81"/>
-      <c r="C194" s="72" t="s">
+      <c r="B201" s="48"/>
+      <c r="C201" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D194" s="80"/>
-      <c r="E194" s="72"/>
-      <c r="F194" s="72"/>
-      <c r="G194" s="80"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="63" t="s">
+      <c r="D201" s="47"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="47"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B195" s="65">
+      <c r="B202" s="32">
         <v>349</v>
       </c>
-      <c r="C195" s="66" t="s">
+      <c r="C202" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D195" s="63" t="s">
+      <c r="D202" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E195" s="67" t="s">
+      <c r="E202" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F195" s="67" t="s">
+      <c r="F202" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="G195" s="63" t="s">
+      <c r="G202" s="30" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="63" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B196" s="65">
+      <c r="B203" s="32">
         <v>750</v>
       </c>
-      <c r="C196" s="66" t="s">
+      <c r="C203" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D196" s="63" t="s">
+      <c r="D203" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E196" s="67" t="s">
+      <c r="E203" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F196" s="67"/>
-      <c r="G196" s="63" t="s">
+      <c r="F203" s="34"/>
+      <c r="G203" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="63" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B197" s="65">
+      <c r="B204" s="32">
         <v>559</v>
       </c>
-      <c r="C197" s="66" t="s">
+      <c r="C204" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D197" s="63" t="s">
+      <c r="D204" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E197" s="67" t="s">
+      <c r="E204" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F197" s="67"/>
-      <c r="G197" s="63" t="s">
+      <c r="F204" s="34"/>
+      <c r="G204" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="63" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B198" s="65">
+      <c r="B205" s="32">
         <v>751</v>
       </c>
-      <c r="C198" s="66" t="s">
+      <c r="C205" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D198" s="63" t="s">
+      <c r="D205" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E198" s="67" t="s">
+      <c r="E205" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F198" s="67"/>
-      <c r="G198" s="63" t="s">
+      <c r="F205" s="34"/>
+      <c r="G205" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="63" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B199" s="65">
+      <c r="B206" s="32">
         <v>352</v>
       </c>
-      <c r="C199" s="66" t="s">
+      <c r="C206" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D199" s="63" t="s">
+      <c r="D206" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E199" s="67" t="s">
+      <c r="E206" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F199" s="67" t="s">
+      <c r="F206" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="G199" s="63" t="s">
+      <c r="G206" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="62" t="s">
+    <row r="207" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B200" s="142" t="s">
+      <c r="B207" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="C200" s="143"/>
-      <c r="D200" s="143"/>
-      <c r="E200" s="143"/>
-      <c r="F200" s="143"/>
-      <c r="G200" s="144"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="31"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="35"/>
-      <c r="F201" s="35"/>
-      <c r="G201" s="31"/>
-    </row>
-    <row r="202" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A202" s="80" t="s">
+      <c r="C207" s="113"/>
+      <c r="D207" s="113"/>
+      <c r="E207" s="113"/>
+      <c r="F207" s="113"/>
+      <c r="G207" s="114"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="30"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="30"/>
+    </row>
+    <row r="209" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A209" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="B202" s="81"/>
-      <c r="C202" s="72" t="s">
+      <c r="B209" s="48"/>
+      <c r="C209" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D202" s="80"/>
-      <c r="E202" s="72"/>
-      <c r="F202" s="82"/>
-      <c r="G202" s="80" t="s">
+      <c r="D209" s="47"/>
+      <c r="E209" s="49"/>
+      <c r="F209" s="65"/>
+      <c r="G209" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="63" t="s">
+    <row r="210" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="B203" s="65">
+      <c r="B210" s="32">
         <v>248</v>
       </c>
-      <c r="C203" s="66" t="s">
+      <c r="C210" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="63" t="s">
+      <c r="D210" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="E203" s="67" t="s">
+      <c r="E210" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F203" s="67" t="s">
+      <c r="F210" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="G203" s="63" t="s">
+      <c r="G210" s="30" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="63" t="s">
+    <row r="211" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="B204" s="65">
+      <c r="B211" s="32">
         <v>1300</v>
       </c>
-      <c r="C204" s="66" t="s">
+      <c r="C211" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="63" t="s">
+      <c r="D211" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="E204" s="67" t="s">
+      <c r="E211" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F204" s="67" t="s">
+      <c r="F211" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="G204" s="63" t="s">
+      <c r="G211" s="30" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="63" t="s">
+    <row r="212" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="B205" s="65">
+      <c r="B212" s="32">
         <v>610</v>
       </c>
-      <c r="C205" s="66" t="s">
+      <c r="C212" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D205" s="63" t="s">
+      <c r="D212" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="E205" s="67" t="s">
+      <c r="E212" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F205" s="43">
+      <c r="F212" s="40">
         <v>0</v>
       </c>
-      <c r="G205" s="63"/>
-    </row>
-    <row r="206" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="63" t="s">
+      <c r="G212" s="30"/>
+    </row>
+    <row r="213" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="B206" s="65">
+      <c r="B213" s="32">
         <v>352</v>
       </c>
-      <c r="C206" s="66" t="s">
+      <c r="C213" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D206" s="63" t="s">
+      <c r="D213" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="E206" s="67" t="s">
+      <c r="E213" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F206" s="43" t="s">
+      <c r="F213" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="G206" s="63"/>
-    </row>
-    <row r="207" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="62" t="s">
+      <c r="G213" s="30"/>
+    </row>
+    <row r="214" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B207" s="128" t="s">
+      <c r="B214" s="108" t="s">
         <v>545</v>
       </c>
-      <c r="C207" s="129"/>
-      <c r="D207" s="129"/>
-      <c r="E207" s="129"/>
-      <c r="F207" s="129"/>
-      <c r="G207" s="130"/>
-    </row>
-    <row r="208" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="62"/>
-      <c r="B208" s="105"/>
-      <c r="C208" s="106"/>
-      <c r="D208" s="106"/>
-      <c r="E208" s="106"/>
-      <c r="F208" s="106"/>
-      <c r="G208" s="107"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="46" t="s">
+      <c r="C214" s="109"/>
+      <c r="D214" s="109"/>
+      <c r="E214" s="109"/>
+      <c r="F214" s="109"/>
+      <c r="G214" s="110"/>
+    </row>
+    <row r="215" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="58"/>
+      <c r="B215" s="81"/>
+      <c r="C215" s="82"/>
+      <c r="D215" s="82"/>
+      <c r="E215" s="82"/>
+      <c r="F215" s="82"/>
+      <c r="G215" s="83"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B209" s="47"/>
-      <c r="C209" s="48"/>
-      <c r="D209" s="46"/>
-      <c r="E209" s="49"/>
-      <c r="F209" s="49"/>
-      <c r="G209" s="46"/>
-    </row>
-    <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="80" t="s">
+      <c r="B216" s="44"/>
+      <c r="C216" s="45"/>
+      <c r="D216" s="43"/>
+      <c r="E216" s="46"/>
+      <c r="F216" s="46"/>
+      <c r="G216" s="43"/>
+    </row>
+    <row r="217" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="B210" s="81"/>
-      <c r="C210" s="72" t="s">
+      <c r="B217" s="48"/>
+      <c r="C217" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D210" s="80"/>
-      <c r="E210" s="72"/>
-      <c r="F210" s="72"/>
-      <c r="G210" s="80" t="s">
+      <c r="D217" s="47"/>
+      <c r="E217" s="49"/>
+      <c r="F217" s="49"/>
+      <c r="G217" s="47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="63" t="s">
+    <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="B211" s="65">
+      <c r="B218" s="32">
         <v>610</v>
       </c>
-      <c r="C211" s="66" t="s">
+      <c r="C218" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="63" t="s">
+      <c r="D218" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="E211" s="67" t="s">
+      <c r="E218" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F211" s="67" t="s">
+      <c r="F218" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="G211" s="63" t="s">
+      <c r="G218" s="30" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="62" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B212" s="142" t="s">
+      <c r="B219" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="C212" s="143"/>
-      <c r="D212" s="143"/>
-      <c r="E212" s="143"/>
-      <c r="F212" s="143"/>
-      <c r="G212" s="144"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="62"/>
-      <c r="B213" s="102"/>
-      <c r="C213" s="103"/>
-      <c r="D213" s="103"/>
-      <c r="E213" s="103"/>
-      <c r="F213" s="103"/>
-      <c r="G213" s="104"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="80" t="s">
+      <c r="C219" s="113"/>
+      <c r="D219" s="113"/>
+      <c r="E219" s="113"/>
+      <c r="F219" s="113"/>
+      <c r="G219" s="114"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="58"/>
+      <c r="B220" s="85"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="86"/>
+      <c r="E220" s="86"/>
+      <c r="F220" s="86"/>
+      <c r="G220" s="87"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="B214" s="80"/>
-      <c r="C214" s="72" t="s">
+      <c r="B221" s="47"/>
+      <c r="C221" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D214" s="80"/>
-      <c r="E214" s="80"/>
-      <c r="F214" s="80"/>
-      <c r="G214" s="80"/>
-    </row>
-    <row r="215" spans="1:7" s="108" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="68" t="s">
+      <c r="D221" s="47"/>
+      <c r="E221" s="47"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="47"/>
+    </row>
+    <row r="222" spans="1:7" s="88" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="B215" s="65" t="s">
+      <c r="B222" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="C215" s="67" t="s">
+      <c r="C222" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D215" s="68" t="s">
+      <c r="D222" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="E215" s="68" t="s">
+      <c r="E222" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F215" s="67" t="s">
+      <c r="F222" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="G215" s="68" t="s">
+      <c r="G222" s="60" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="68" t="s">
+    <row r="223" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="B216" s="65" t="s">
+      <c r="B223" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="C216" s="67" t="s">
+      <c r="C223" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D216" s="68" t="s">
+      <c r="D223" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="E216" s="68" t="s">
+      <c r="E223" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="F216" s="67" t="s">
+      <c r="F223" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="G216" s="68" t="s">
+      <c r="G223" s="60" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="68" t="s">
+    <row r="224" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="B217" s="65" t="s">
+      <c r="B224" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="C217" s="67" t="s">
+      <c r="C224" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D217" s="68" t="s">
+      <c r="D224" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="E217" s="68" t="s">
+      <c r="E224" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F217" s="67" t="s">
+      <c r="F224" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="G217" s="68" t="s">
+      <c r="G224" s="60" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="68" t="s">
+    <row r="225" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="B218" s="65" t="s">
+      <c r="B225" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="C218" s="67" t="s">
+      <c r="C225" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D218" s="68" t="s">
+      <c r="D225" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="E218" s="68" t="s">
+      <c r="E225" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F218" s="67"/>
-    </row>
-    <row r="219" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="68" t="s">
+      <c r="F225" s="34"/>
+    </row>
+    <row r="226" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="B219" s="65" t="s">
+      <c r="B226" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="C219" s="67" t="s">
+      <c r="C226" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D219" s="68" t="s">
+      <c r="D226" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="E219" s="68" t="s">
+      <c r="E226" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F219" s="67"/>
-      <c r="G219" s="68"/>
-    </row>
-    <row r="220" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="68" t="s">
+      <c r="F226" s="34"/>
+      <c r="G226" s="60"/>
+    </row>
+    <row r="227" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="B220" s="65" t="s">
+      <c r="B227" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="C220" s="67" t="s">
+      <c r="C227" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D220" s="68" t="s">
+      <c r="D227" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="E220" s="68" t="s">
+      <c r="E227" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F220" s="67"/>
-      <c r="G220" s="68"/>
-    </row>
-    <row r="221" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="68" t="s">
+      <c r="F227" s="34"/>
+      <c r="G227" s="60"/>
+    </row>
+    <row r="228" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="B221" s="65">
+      <c r="B228" s="32">
         <v>662</v>
       </c>
-      <c r="C221" s="67" t="s">
+      <c r="C228" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D221" s="68" t="s">
+      <c r="D228" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="E221" s="68" t="s">
+      <c r="E228" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F221" s="67"/>
-      <c r="G221" s="68"/>
-    </row>
-    <row r="222" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="68" t="s">
+      <c r="F228" s="34"/>
+      <c r="G228" s="60"/>
+    </row>
+    <row r="229" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B222" s="65">
+      <c r="B229" s="32">
         <v>828</v>
       </c>
-      <c r="C222" s="67" t="s">
+      <c r="C229" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D222" s="68" t="s">
+      <c r="D229" s="60" t="s">
         <v>514</v>
       </c>
-      <c r="E222" s="68" t="s">
+      <c r="E229" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F222" s="67" t="s">
+      <c r="F229" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="G222" s="68" t="s">
+      <c r="G229" s="60" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="62" t="s">
+    <row r="230" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B223" s="128" t="s">
+      <c r="B230" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="C223" s="129"/>
-      <c r="D223" s="129"/>
-      <c r="E223" s="129"/>
-      <c r="F223" s="129"/>
-      <c r="G223" s="130"/>
-    </row>
-    <row r="224" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="62"/>
-      <c r="B224" s="105"/>
-      <c r="C224" s="106"/>
-      <c r="D224" s="106"/>
-      <c r="E224" s="106"/>
-      <c r="F224" s="106"/>
-      <c r="G224" s="107"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="80" t="s">
+      <c r="C230" s="109"/>
+      <c r="D230" s="109"/>
+      <c r="E230" s="109"/>
+      <c r="F230" s="109"/>
+      <c r="G230" s="110"/>
+    </row>
+    <row r="231" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="58"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="82"/>
+      <c r="D231" s="82"/>
+      <c r="E231" s="82"/>
+      <c r="F231" s="82"/>
+      <c r="G231" s="83"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="B225" s="80"/>
-      <c r="C225" s="80"/>
-      <c r="D225" s="80"/>
-      <c r="E225" s="80"/>
-      <c r="F225" s="80"/>
-      <c r="G225" s="80"/>
-    </row>
-    <row r="226" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A226" s="63" t="s">
+      <c r="B232" s="47"/>
+      <c r="C232" s="47"/>
+      <c r="D232" s="47"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="47"/>
+      <c r="G232" s="47"/>
+    </row>
+    <row r="233" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A233" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="B226" s="65">
+      <c r="B233" s="32">
         <v>91</v>
       </c>
-      <c r="C226" s="66" t="s">
+      <c r="C233" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D226" s="63" t="s">
+      <c r="D233" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E226" s="69" t="s">
+      <c r="E233" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="F226" s="67" t="s">
+      <c r="F233" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G226" s="109" t="s">
+      <c r="G233" s="89" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="63" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B227" s="110">
+      <c r="B234" s="90">
         <v>206</v>
       </c>
-      <c r="C227" s="66" t="s">
+      <c r="C234" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D227" s="63" t="s">
+      <c r="D234" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="E227" s="69" t="s">
+      <c r="E234" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="F227" s="67"/>
-      <c r="G227" s="63"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="63" t="s">
+      <c r="F234" s="34"/>
+      <c r="G234" s="30"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B228" s="65">
+      <c r="B235" s="32">
         <v>207</v>
       </c>
-      <c r="C228" s="66" t="s">
+      <c r="C235" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D228" s="63" t="s">
+      <c r="D235" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="E228" s="69" t="s">
+      <c r="E235" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="F228" s="67"/>
-      <c r="G228" s="63"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="63" t="s">
+      <c r="F235" s="34"/>
+      <c r="G235" s="30"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="B229" s="65">
+      <c r="B236" s="32">
         <v>140</v>
       </c>
-      <c r="C229" s="66" t="s">
+      <c r="C236" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D229" s="63" t="s">
+      <c r="D236" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="E229" s="69" t="s">
+      <c r="E236" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="F229" s="67"/>
-      <c r="G229" s="63"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="63" t="s">
+      <c r="F236" s="34"/>
+      <c r="G236" s="30"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B230" s="65">
+      <c r="B237" s="32">
         <v>387</v>
       </c>
-      <c r="C230" s="66" t="s">
+      <c r="C237" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D230" s="63" t="s">
+      <c r="D237" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="E230" s="69" t="s">
+      <c r="E237" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="F230" s="67" t="s">
+      <c r="F237" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="G230" s="63" t="s">
+      <c r="G237" s="30" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="62" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B231" s="145" t="s">
+      <c r="B238" s="111" t="s">
         <v>341</v>
       </c>
-      <c r="C231" s="145"/>
-      <c r="D231" s="145"/>
-      <c r="E231" s="145"/>
-      <c r="F231" s="145"/>
-      <c r="G231" s="145"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="62"/>
-      <c r="B232" s="111"/>
-      <c r="C232" s="111"/>
-      <c r="D232" s="111"/>
-      <c r="E232" s="111"/>
-      <c r="F232" s="111"/>
-      <c r="G232" s="111"/>
-    </row>
-    <row r="233" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A233" s="80" t="s">
+      <c r="C238" s="111"/>
+      <c r="D238" s="111"/>
+      <c r="E238" s="111"/>
+      <c r="F238" s="111"/>
+      <c r="G238" s="111"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="58"/>
+      <c r="B239" s="91"/>
+      <c r="C239" s="91"/>
+      <c r="D239" s="91"/>
+      <c r="E239" s="91"/>
+      <c r="F239" s="91"/>
+      <c r="G239" s="91"/>
+    </row>
+    <row r="240" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A240" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="B233" s="81"/>
-      <c r="C233" s="72" t="s">
+      <c r="B240" s="48"/>
+      <c r="C240" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D233" s="80"/>
-      <c r="E233" s="72"/>
-      <c r="F233" s="82"/>
-      <c r="G233" s="80" t="s">
+      <c r="D240" s="47"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="65"/>
+      <c r="G240" s="47" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="63" t="s">
+    <row r="241" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="B234" s="65">
+      <c r="B241" s="32">
         <v>248</v>
       </c>
-      <c r="C234" s="66" t="s">
+      <c r="C241" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D234" s="63" t="s">
+      <c r="D241" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="E234" s="67" t="s">
+      <c r="E241" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F234" s="67" t="s">
+      <c r="F241" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="G234" s="63" t="s">
+      <c r="G241" s="30" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="63" t="s">
+    <row r="242" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="B235" s="65">
+      <c r="B242" s="32">
         <v>1300</v>
       </c>
-      <c r="C235" s="66" t="s">
+      <c r="C242" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D235" s="63" t="s">
+      <c r="D242" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="E235" s="67" t="s">
+      <c r="E242" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F235" s="67" t="s">
+      <c r="F242" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="G235" s="63" t="s">
+      <c r="G242" s="30" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="63" t="s">
+    <row r="243" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="B236" s="65">
+      <c r="B243" s="32">
         <v>610</v>
       </c>
-      <c r="C236" s="66" t="s">
+      <c r="C243" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D236" s="63" t="s">
+      <c r="D243" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="E236" s="67" t="s">
+      <c r="E243" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F236" s="43">
+      <c r="F243" s="40">
         <v>1000</v>
       </c>
-      <c r="G236" s="63"/>
-    </row>
-    <row r="237" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="63" t="s">
+      <c r="G243" s="30"/>
+    </row>
+    <row r="244" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="B237" s="65">
+      <c r="B244" s="32">
         <v>352</v>
       </c>
-      <c r="C237" s="66" t="s">
+      <c r="C244" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D237" s="63" t="s">
+      <c r="D244" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="E237" s="67" t="s">
+      <c r="E244" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F237" s="43" t="s">
+      <c r="F244" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="G237" s="63"/>
-    </row>
-    <row r="238" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="62" t="s">
+      <c r="G244" s="30"/>
+    </row>
+    <row r="245" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B238" s="128" t="s">
+      <c r="B245" s="108" t="s">
         <v>545</v>
       </c>
-      <c r="C238" s="129"/>
-      <c r="D238" s="129"/>
-      <c r="E238" s="129"/>
-      <c r="F238" s="129"/>
-      <c r="G238" s="130"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="75"/>
-      <c r="B239" s="65"/>
-      <c r="C239" s="77"/>
-      <c r="D239" s="75"/>
-      <c r="E239" s="67"/>
-      <c r="F239" s="68"/>
-      <c r="G239" s="75"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="80" t="s">
+      <c r="C245" s="109"/>
+      <c r="D245" s="109"/>
+      <c r="E245" s="109"/>
+      <c r="F245" s="109"/>
+      <c r="G245" s="110"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="28"/>
+      <c r="B246" s="32"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="60"/>
+      <c r="G246" s="28"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="B240" s="80"/>
-      <c r="C240" s="80"/>
-      <c r="D240" s="80"/>
-      <c r="E240" s="80"/>
-      <c r="F240" s="80"/>
-      <c r="G240" s="80"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="63" t="s">
+      <c r="B247" s="47"/>
+      <c r="C247" s="47"/>
+      <c r="D247" s="47"/>
+      <c r="E247" s="47"/>
+      <c r="F247" s="47"/>
+      <c r="G247" s="47"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B241" s="65">
+      <c r="B248" s="32">
         <v>354</v>
       </c>
-      <c r="C241" s="66" t="s">
+      <c r="C248" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="63" t="s">
+      <c r="D248" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="E241" s="69" t="s">
+      <c r="E248" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="F241" s="69" t="s">
+      <c r="F248" s="61" t="s">
         <v>553</v>
       </c>
-      <c r="G241" s="63" t="s">
+      <c r="G248" s="30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="62" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B242" s="128" t="s">
+      <c r="B249" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="C242" s="129"/>
-      <c r="D242" s="129"/>
-      <c r="E242" s="129"/>
-      <c r="F242" s="129"/>
-      <c r="G242" s="130"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="63"/>
-      <c r="B243" s="65"/>
-      <c r="C243" s="66"/>
-      <c r="D243" s="63"/>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
-      <c r="G243" s="63"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="63"/>
-      <c r="B244" s="65"/>
-      <c r="C244" s="66"/>
-      <c r="D244" s="63"/>
-      <c r="E244" s="67"/>
-      <c r="F244" s="67"/>
-      <c r="G244" s="63"/>
-    </row>
-    <row r="245" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="80" t="s">
+      <c r="C249" s="109"/>
+      <c r="D249" s="109"/>
+      <c r="E249" s="109"/>
+      <c r="F249" s="109"/>
+      <c r="G249" s="110"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="30"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="36"/>
+      <c r="D250" s="30"/>
+      <c r="E250" s="61"/>
+      <c r="F250" s="61"/>
+      <c r="G250" s="30"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="30"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="30"/>
+    </row>
+    <row r="252" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B245" s="81"/>
-      <c r="C245" s="72" t="s">
+      <c r="B252" s="48"/>
+      <c r="C252" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D245" s="80" t="s">
+      <c r="D252" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E245" s="72"/>
-      <c r="F245" s="72"/>
-      <c r="G245" s="80"/>
-    </row>
-    <row r="246" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="63" t="s">
+      <c r="E252" s="49"/>
+      <c r="F252" s="49"/>
+      <c r="G252" s="47"/>
+    </row>
+    <row r="253" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B246" s="65">
+      <c r="B253" s="32">
         <v>96</v>
       </c>
-      <c r="C246" s="66" t="s">
+      <c r="C253" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D246" s="63" t="s">
+      <c r="D253" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E246" s="67" t="s">
+      <c r="E253" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F246" s="67"/>
-      <c r="G246" s="63"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="63" t="s">
+      <c r="F253" s="34"/>
+      <c r="G253" s="30"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="65">
+      <c r="B254" s="32">
         <v>329</v>
       </c>
-      <c r="C247" s="66" t="s">
+      <c r="C254" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D247" s="63" t="s">
+      <c r="D254" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E247" s="67" t="s">
+      <c r="E254" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F247" s="67" t="s">
+      <c r="F254" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="G247" s="29" t="s">
+      <c r="G254" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="62" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B248" s="128" t="s">
+      <c r="B255" s="108" t="s">
         <v>554</v>
       </c>
-      <c r="C248" s="129"/>
-      <c r="D248" s="129"/>
-      <c r="E248" s="129"/>
-      <c r="F248" s="129"/>
-      <c r="G248" s="130"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="63"/>
-      <c r="B249" s="65"/>
-      <c r="C249" s="66"/>
-      <c r="D249" s="63"/>
-      <c r="E249" s="67"/>
-      <c r="F249" s="67"/>
-      <c r="G249" s="75"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="80" t="s">
+      <c r="C255" s="109"/>
+      <c r="D255" s="109"/>
+      <c r="E255" s="109"/>
+      <c r="F255" s="109"/>
+      <c r="G255" s="110"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="30"/>
+      <c r="B256" s="32"/>
+      <c r="C256" s="36"/>
+      <c r="D256" s="30"/>
+      <c r="E256" s="34"/>
+      <c r="F256" s="34"/>
+      <c r="G256" s="28"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B250" s="81"/>
-      <c r="C250" s="72" t="s">
+      <c r="B257" s="48"/>
+      <c r="C257" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D250" s="80"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
-      <c r="G250" s="80"/>
-    </row>
-    <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="63" t="s">
+      <c r="D257" s="47"/>
+      <c r="E257" s="49"/>
+      <c r="F257" s="49"/>
+      <c r="G257" s="47"/>
+    </row>
+    <row r="258" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B251" s="65">
+      <c r="B258" s="32">
         <v>97</v>
       </c>
-      <c r="C251" s="66" t="s">
+      <c r="C258" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D251" s="63" t="s">
+      <c r="D258" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E251" s="67" t="s">
+      <c r="E258" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F251" s="67" t="s">
+      <c r="F258" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="G251" s="31" t="s">
+      <c r="G258" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="63" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B252" s="65">
+      <c r="B259" s="32">
         <v>28</v>
       </c>
-      <c r="C252" s="66" t="s">
+      <c r="C259" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D252" s="63" t="s">
+      <c r="D259" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E252" s="67" t="s">
+      <c r="E259" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F252" s="67" t="s">
+      <c r="F259" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="G252" s="29" t="s">
+      <c r="G259" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="62" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B253" s="128" t="s">
+      <c r="B260" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="C253" s="129"/>
-      <c r="D253" s="129"/>
-      <c r="E253" s="129"/>
-      <c r="F253" s="129"/>
-      <c r="G253" s="130"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="63"/>
-      <c r="B254" s="65"/>
-      <c r="C254" s="66"/>
-      <c r="D254" s="63"/>
-      <c r="E254" s="67"/>
-      <c r="F254" s="67"/>
-      <c r="G254" s="75"/>
-    </row>
-    <row r="255" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="80" t="s">
+      <c r="C260" s="109"/>
+      <c r="D260" s="109"/>
+      <c r="E260" s="109"/>
+      <c r="F260" s="109"/>
+      <c r="G260" s="110"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="30"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="36"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="34"/>
+      <c r="F261" s="34"/>
+      <c r="G261" s="28"/>
+    </row>
+    <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B255" s="81"/>
-      <c r="C255" s="72" t="s">
+      <c r="B262" s="48"/>
+      <c r="C262" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D255" s="80" t="s">
+      <c r="D262" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="E255" s="72"/>
-      <c r="F255" s="72"/>
-      <c r="G255" s="80"/>
-    </row>
-    <row r="256" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="63" t="s">
+      <c r="E262" s="49"/>
+      <c r="F262" s="49"/>
+      <c r="G262" s="47"/>
+    </row>
+    <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B256" s="65">
+      <c r="B263" s="32">
         <v>479</v>
       </c>
-      <c r="C256" s="66" t="s">
+      <c r="C263" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D256" s="63" t="s">
+      <c r="D263" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="E256" s="67" t="s">
+      <c r="E263" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F256" s="67" t="s">
+      <c r="F263" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="G256" s="63" t="s">
+      <c r="G263" s="30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="63" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B257" s="65">
+      <c r="B264" s="32">
         <v>142</v>
       </c>
-      <c r="C257" s="66" t="s">
+      <c r="C264" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D257" s="63" t="s">
+      <c r="D264" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E257" s="67" t="s">
+      <c r="E264" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F257" s="67" t="s">
+      <c r="F264" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="G257" s="29" t="s">
+      <c r="G264" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="62" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B258" s="128" t="s">
+      <c r="B265" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="C258" s="129"/>
-      <c r="D258" s="129"/>
-      <c r="E258" s="129"/>
-      <c r="F258" s="129"/>
-      <c r="G258" s="130"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="63"/>
-      <c r="B259" s="65"/>
-      <c r="C259" s="66"/>
-      <c r="D259" s="63"/>
-      <c r="E259" s="69"/>
-      <c r="F259" s="69"/>
-      <c r="G259" s="63"/>
+      <c r="C265" s="109"/>
+      <c r="D265" s="109"/>
+      <c r="E265" s="109"/>
+      <c r="F265" s="109"/>
+      <c r="G265" s="110"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="30"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="36"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="61"/>
+      <c r="F266" s="61"/>
+      <c r="G266" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B258:G258"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B238:G238"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B248:G248"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B200:G200"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B154:G154"/>
+  <mergeCells count="44">
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B84:G84"/>
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="B95:G95"/>
     <mergeCell ref="B112:G112"/>
@@ -7738,18 +7878,26 @@
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="B120:G120"/>
     <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B207:G207"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B260:G260"/>
+    <mergeCell ref="B265:G265"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="B238:G238"/>
+    <mergeCell ref="B245:G245"/>
+    <mergeCell ref="B249:G249"/>
+    <mergeCell ref="B255:G255"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7760,10 +7908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E5C590-A8B0-4D05-8C32-D7237AC1F52C}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7772,192 +7920,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="130" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="131" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="131" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="131" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="131" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="131" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="131" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="131" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="131" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="131" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="131" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="131" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="131" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="131" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="131" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="131" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="131" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="131" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="131" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="131" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="131" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="131" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="131" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="131" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="131" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="131" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="131" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="131" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="131" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="131" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="131" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="131" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="131" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="131" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="131" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="131" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="131" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="132" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7981,232 +8139,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B24" s="63"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="30"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8348,6 +8506,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101003688EBDF5F635048999D21A2DBC06F0F" ma:contentTypeVersion="15" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="e1d18e416b2109accbee30ee1d7f90a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="ae12db29-b756-4a0b-b716-8001752966ab" xmlns:ns4="e95059ac-d84d-431f-ad54-803076f82fd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="faace6028bc083d479b61c22dbb70f96" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8587,25 +8763,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B6EFCA8-874E-4019-8C33-88CB8C8F375D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ae12db29-b756-4a0b-b716-8001752966ab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e95059ac-d84d-431f-ad54-803076f82fd1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E09AF6F-604B-45B8-9086-79C817BDAE31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8623,30 +8807,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B6EFCA8-874E-4019-8C33-88CB8C8F375D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ae12db29-b756-4a0b-b716-8001752966ab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e95059ac-d84d-431f-ad54-803076f82fd1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-inbound.xlsx
+++ b/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-inbound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\format\integration-resources\format-specifications\ansi-x12\4010\810\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D7A14-26AF-4475-9D22-7140F20EFBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB834329-F917-40D3-85C8-1DAA595FCD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="578">
   <si>
     <t>Responsible</t>
   </si>
@@ -656,15 +656,6 @@
     <t>Escape ":" "|" "^" "~" in texts
 Data Element Separator: '^'
 Segment Terminator: '~'</t>
-  </si>
-  <si>
-    <t>This document describes the format analysis of customers format.
-Sheet "Order content" defines the overall structure of the order format and the name and meaning of the fields in the format. 
-Pagero fills in the columns based on example files and/or specfications provided by the customer.
-If Pagero's interpretation of customer format is correct the customer sets "OK" in column "Customer comments". 
-If Pagero's interpretation is not correct customer sets "NOT OK" in column "Customer comments" and add a comment/explanation in same column.
-Sheet "Open issues" defines all open issues that needs to be resolved before Pagero can begin implementing customer format.
-In this case we can start focusing on red marked fields and see if any open issue remains</t>
   </si>
   <si>
     <t>Functional Identifier Code A count of the number of functional groups included in an interchange.</t>
@@ -1787,15 +1778,40 @@
   <si>
     <t>MSG*Free text data information~</t>
   </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Added support for DTM*069 (Promised for Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document describes Pageros interpretation of X12 v4010 Invoice. </t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '069' as fixed value (Promised for Delivery)</t>
+  </si>
+  <si>
+    <t>DTM*069*20211103~</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2091,416 +2107,450 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyBorder="0" applyAlignment="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20 % - Dekorfärg3" xfId="1" builtinId="38"/>
-    <cellStyle name="Dålig" xfId="4" builtinId="27"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="20% - Accent3 2" xfId="6" xr:uid="{755B07EB-D154-48D1-A4E5-369588C5DA6F}"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Grey divider" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normaali 4" xfId="5" xr:uid="{F5AD1FA9-46B0-445B-98D9-9A36F7F32110}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2584,9 +2634,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2624,9 +2674,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2659,26 +2709,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2711,26 +2744,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2907,7 +2923,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2931,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="2"/>
@@ -2942,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="2"/>
@@ -2953,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="2"/>
@@ -2964,7 +2980,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="2"/>
@@ -2975,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="2"/>
@@ -2989,90 +3005,90 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="B10" s="104" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3084,18 +3100,18 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,9 +3129,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="134">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="132" t="s">
+        <v>572</v>
+      </c>
+      <c r="D24" s="132" t="s">
+        <v>573</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3219,94 +3241,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="38" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="34" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="43" t="s">
+      <c r="A2" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="42" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>349</v>
+      <c r="F4" s="33" t="s">
+        <v>348</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>197</v>
@@ -3316,19 +3338,19 @@
       <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="28" t="s">
         <v>198</v>
       </c>
@@ -3337,20 +3359,20 @@
       <c r="A6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>349</v>
+      <c r="F6" s="33" t="s">
+        <v>348</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>197</v>
@@ -3360,19 +3382,19 @@
       <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="28" t="s">
         <v>198</v>
       </c>
@@ -3381,112 +3403,112 @@
       <c r="A8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>350</v>
+      <c r="F8" s="61" t="s">
+        <v>349</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>482</v>
+      <c r="F9" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>350</v>
+      <c r="F10" s="61" t="s">
+        <v>349</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>352</v>
+      <c r="F11" s="61" t="s">
+        <v>351</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>353</v>
+      <c r="F12" s="61" t="s">
+        <v>352</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>56</v>
@@ -3496,20 +3518,20 @@
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>354</v>
+      <c r="F13" s="61" t="s">
+        <v>353</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>185</v>
@@ -3519,20 +3541,20 @@
       <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="62" t="s">
-        <v>355</v>
+      <c r="F14" s="61" t="s">
+        <v>354</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>195</v>
@@ -3542,20 +3564,20 @@
       <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="62" t="s">
-        <v>356</v>
+      <c r="F15" s="61" t="s">
+        <v>355</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>196</v>
@@ -3565,20 +3587,20 @@
       <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="62" t="s">
-        <v>357</v>
+      <c r="F16" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>186</v>
@@ -3588,20 +3610,20 @@
       <c r="A17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="62" t="s">
-        <v>358</v>
+      <c r="F17" s="61" t="s">
+        <v>357</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>194</v>
@@ -3611,20 +3633,20 @@
       <c r="A18" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="62" t="s">
-        <v>359</v>
+      <c r="F18" s="61" t="s">
+        <v>358</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>199</v>
@@ -3634,156 +3656,156 @@
       <c r="A19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>360</v>
+      <c r="F19" s="61" t="s">
+        <v>359</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="117" t="s">
         <v>362</v>
       </c>
-      <c r="B20" s="118" t="s">
-        <v>363</v>
-      </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="119"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="62"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="47"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>479</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>385</v>
+      <c r="F24" s="60" t="s">
+        <v>384</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>142</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>389</v>
+      <c r="F25" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>124</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>387</v>
+      <c r="F26" s="33" t="s">
+        <v>386</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>29</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>375</v>
+      <c r="F27" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>93</v>
@@ -3793,20 +3815,20 @@
       <c r="A28" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>30</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>354</v>
+      <c r="F28" s="33" t="s">
+        <v>353</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>185</v>
@@ -3816,20 +3838,20 @@
       <c r="A29" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>28</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="34" t="s">
-        <v>357</v>
+      <c r="F29" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>186</v>
@@ -3839,19 +3861,19 @@
       <c r="A30" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>455</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>118</v>
       </c>
       <c r="G30" s="28" t="s">
@@ -3862,1185 +3884,1185 @@
       <c r="A31" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <v>480</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="34" t="s">
-        <v>388</v>
+      <c r="F31" s="33" t="s">
+        <v>387</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" s="108" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
+      <c r="A32" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <v>143</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>384</v>
+      <c r="F35" s="33" t="s">
+        <v>383</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="31">
         <v>329</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>357</v>
+      <c r="F36" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="108" t="s">
-        <v>313</v>
-      </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="122"/>
+      <c r="A37" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="121"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49" t="s">
+      <c r="A40" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="47"/>
+      <c r="D40" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="31">
+        <v>373</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="32">
-        <v>373</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>375</v>
+      <c r="F41" s="33" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="31">
+        <v>76</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="32">
-        <v>76</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>376</v>
+      <c r="F42" s="33" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="31">
+        <v>373</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="32">
-        <v>373</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>377</v>
+      <c r="F43" s="33" t="s">
+        <v>376</v>
       </c>
       <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="32">
+        <v>222</v>
+      </c>
+      <c r="B44" s="31">
         <v>324</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>378</v>
+      <c r="F44" s="33" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="32">
+        <v>223</v>
+      </c>
+      <c r="B45" s="31">
         <v>328</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="E45" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="34"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" s="32">
+        <v>224</v>
+      </c>
+      <c r="B46" s="31">
         <v>327</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D46" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F46" s="34"/>
+      <c r="F46" s="33"/>
       <c r="G46" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="31">
+        <v>640</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="32">
-        <v>640</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" s="29" t="s">
         <v>382</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" s="31">
+        <v>353</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="B48" s="32">
-        <v>353</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="28" t="s">
+      <c r="E48" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="28" t="s">
         <v>365</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="31">
+        <v>306</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="B49" s="32">
-        <v>306</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>268</v>
+      <c r="F49" s="33" t="s">
+        <v>267</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" s="31">
+        <v>74</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="B50" s="32">
-        <v>74</v>
-      </c>
-      <c r="C50" s="33" t="s">
+      <c r="D50" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="E50" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="E50" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="34" t="s">
+      <c r="G50" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="G50" s="64" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="114" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B51" s="108" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="122"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="121"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
-      <c r="B52" s="108" t="s">
-        <v>347</v>
-      </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="122"/>
+      <c r="B52" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="121"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49" t="s">
+      <c r="B55" s="66">
+        <v>98</v>
+      </c>
+      <c r="C55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="66" t="s">
+      <c r="D55" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="67">
+      <c r="G55" s="67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="66">
+        <v>100</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B57" s="69">
+        <v>280</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="B58" s="69">
         <v>98</v>
       </c>
-      <c r="C55" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="67" t="s">
+      <c r="C58" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="G55" s="68" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="66" t="s">
+      <c r="F58" s="73"/>
+      <c r="G58" s="74"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59" s="69">
+        <v>100</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="B56" s="67">
-        <v>100</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="E56" s="69" t="s">
+      <c r="E59" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="G56" s="66"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="B57" s="70">
-        <v>280</v>
-      </c>
-      <c r="C57" s="71" t="s">
+      <c r="F59" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" s="74" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="B60" s="69">
+        <v>669</v>
+      </c>
+      <c r="C60" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="E57" s="73" t="s">
-        <v>400</v>
-      </c>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="B58" s="70">
-        <v>98</v>
-      </c>
-      <c r="C58" s="71" t="s">
+      <c r="D60" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="73"/>
+      <c r="G60" s="74"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" s="69">
+        <v>374</v>
+      </c>
+      <c r="C61" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="E58" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="B59" s="70">
-        <v>100</v>
-      </c>
-      <c r="C59" s="67" t="s">
+      <c r="D61" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="B62" s="69">
+        <v>337</v>
+      </c>
+      <c r="C62" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="E59" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="G59" s="75" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="B60" s="70">
-        <v>669</v>
-      </c>
-      <c r="C60" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>408</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="74"/>
-      <c r="G60" s="75"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="B61" s="70">
-        <v>374</v>
-      </c>
-      <c r="C61" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" t="s">
-        <v>252</v>
-      </c>
-      <c r="E61" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="66" t="s">
+      <c r="D62" t="s">
         <v>412</v>
       </c>
-      <c r="B62" s="70">
-        <v>337</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="60" t="s">
         <v>413</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>414</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B63" s="123" t="s">
+      <c r="A63" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="76" t="s">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="62" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="63" t="s">
+      <c r="B64" s="124" t="s">
         <v>417</v>
       </c>
-      <c r="B64" s="125" t="s">
+      <c r="C64" s="120"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="50">
+        <v>128</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="G67" s="56" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="50">
+        <v>127</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="122"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="79"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="47" t="s">
+      <c r="E68" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" s="50">
+        <v>11</v>
+      </c>
+      <c r="G68" s="56" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="114" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="121"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="56"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="B67" s="51">
+      <c r="B72" s="50">
         <v>128</v>
       </c>
-      <c r="C67" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="D67" s="50" t="s">
+      <c r="C72" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72" s="56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="E67" s="51" t="s">
+      <c r="B73" s="50">
+        <v>127</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" s="50">
+        <v>111111111</v>
+      </c>
+      <c r="G73" s="56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" s="114" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="121"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="56"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="50">
+        <v>128</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E77" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="G67" s="57" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="50" t="s">
+      <c r="F77" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G77" s="56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="50">
+        <v>127</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="E78" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B68" s="51">
+      <c r="F78" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G78" s="56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="120"/>
+      <c r="D79" s="120"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="121"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="38"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" s="50">
+        <v>128</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="E82" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G82" s="56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" s="50">
         <v>127</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C83" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E68" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" s="51">
-        <v>11</v>
-      </c>
-      <c r="G68" s="57" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B69" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="C69" s="121"/>
-      <c r="D69" s="121"/>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="122"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="57"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="B72" s="51">
-        <v>128</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>422</v>
-      </c>
-      <c r="G72" s="57" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="50" t="s">
+      <c r="D83" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="E83" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B73" s="51">
-        <v>127</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E73" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="51">
-        <v>111111111</v>
-      </c>
-      <c r="G73" s="57" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B74" s="108" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="122"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="57"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="B77" s="51">
-        <v>128</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>425</v>
-      </c>
-      <c r="E77" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="G77" s="57" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="B78" s="51">
-        <v>127</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="F78" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="G78" s="57" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B79" s="108" t="s">
+      <c r="F83" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="G83" s="56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
-      <c r="E79" s="121"/>
-      <c r="F79" s="121"/>
-      <c r="G79" s="122"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="39"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="B82" s="51">
-        <v>128</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>431</v>
-      </c>
-      <c r="G82" s="57" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="B83" s="51">
-        <v>127</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D83" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="F83" s="51" t="s">
-        <v>433</v>
-      </c>
-      <c r="G83" s="57" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B84" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="C84" s="121"/>
-      <c r="D84" s="121"/>
-      <c r="E84" s="121"/>
-      <c r="F84" s="121"/>
-      <c r="G84" s="122"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="120"/>
+      <c r="G84" s="121"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="28"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="28"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="39"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="38"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="49" t="s">
+      <c r="A87" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B87" s="47"/>
+      <c r="C87" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="47"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="47" t="s">
-        <v>268</v>
+      <c r="D87" s="46"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="46" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B88" s="31">
+        <v>366</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="B88" s="32">
-        <v>366</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" s="28" t="s">
+      <c r="E88" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="E88" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="34" t="s">
+      <c r="G88" s="79" t="s">
         <v>438</v>
-      </c>
-      <c r="G88" s="80" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="B89" s="32">
+        <v>439</v>
+      </c>
+      <c r="B89" s="31">
         <v>93</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F89" s="34" t="s">
-        <v>441</v>
+      <c r="F89" s="33" t="s">
+        <v>440</v>
       </c>
       <c r="G89" s="28"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B90" s="31">
+        <v>365</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="B90" s="32">
-        <v>365</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" s="28" t="s">
+      <c r="E90" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="E90" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="40" t="s">
+      <c r="G90" s="79" t="s">
         <v>444</v>
-      </c>
-      <c r="G90" s="80" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B91" s="31">
+        <v>364</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="B91" s="32">
-        <v>364</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="28" t="s">
+      <c r="E91" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="33" t="s">
         <v>447</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>448</v>
       </c>
       <c r="G91" s="28"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="B92" s="31">
+        <v>365</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="B92" s="32">
-        <v>365</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="28" t="s">
+      <c r="E92" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="E92" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="40" t="s">
+      <c r="G92" s="79" t="s">
         <v>451</v>
-      </c>
-      <c r="G92" s="80" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B93" s="31">
+        <v>364</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="B93" s="32">
-        <v>364</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="28" t="s">
+      <c r="E93" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="E93" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" s="34" t="s">
-        <v>455</v>
-      </c>
       <c r="G93" s="28"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B94" s="108" t="s">
-        <v>320</v>
-      </c>
-      <c r="C94" s="109"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="110"/>
+      <c r="A94" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" s="114" t="s">
+        <v>319</v>
+      </c>
+      <c r="C94" s="115"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="115"/>
+      <c r="G94" s="116"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="28"/>
-      <c r="B95" s="108" t="s">
-        <v>321</v>
-      </c>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="109"/>
-      <c r="G95" s="110"/>
+      <c r="B95" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" s="115"/>
+      <c r="D95" s="115"/>
+      <c r="E95" s="115"/>
+      <c r="F95" s="115"/>
+      <c r="G95" s="116"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="28"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="83"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="82"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49" t="s">
+      <c r="B97" s="47"/>
+      <c r="C97" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D97" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="47"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="46"/>
     </row>
     <row r="98" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="32">
+      <c r="B98" s="31">
         <v>98</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F98" s="34" t="s">
-        <v>393</v>
+      <c r="F98" s="33" t="s">
+        <v>392</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="32">
+      <c r="B99" s="31">
         <v>93</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="34" t="s">
-        <v>457</v>
+      <c r="F99" s="33" t="s">
+        <v>456</v>
       </c>
       <c r="G99" s="28"/>
     </row>
@@ -5048,166 +5070,166 @@
       <c r="A100" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="32">
+      <c r="B100" s="31">
         <v>66</v>
       </c>
-      <c r="C100" s="33" t="s">
+      <c r="C100" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="39">
+        <v>67</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="G100" s="28" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B101" s="40">
-        <v>67</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E101" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="G101" s="39"/>
+      <c r="G101" s="38"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="49" t="s">
+      <c r="B102" s="47"/>
+      <c r="C102" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="47"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="47"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="46"/>
     </row>
     <row r="103" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="31">
         <v>93</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E103" s="34" t="s">
+      <c r="E103" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>460</v>
+      <c r="F103" s="33" t="s">
+        <v>459</v>
       </c>
       <c r="G103" s="28" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="49" t="s">
+      <c r="B104" s="47"/>
+      <c r="C104" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D104" s="47"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="47"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="46"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="40">
+      <c r="B105" s="39">
         <v>166</v>
       </c>
-      <c r="C105" s="40" t="s">
+      <c r="C105" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F105" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="G105" s="39" t="s">
-        <v>268</v>
+      <c r="F105" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40" t="s">
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="47"/>
+      <c r="C107" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D106" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="47"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="46"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="32">
+      <c r="B108" s="31">
         <v>19</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="C108" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D108" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E108" s="34" t="s">
+      <c r="E108" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F108" s="34" t="s">
-        <v>462</v>
+      <c r="F108" s="33" t="s">
+        <v>461</v>
       </c>
       <c r="G108" s="28"/>
     </row>
@@ -5215,43 +5237,43 @@
       <c r="A109" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="32">
+      <c r="B109" s="31">
         <v>156</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C109" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D109" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E109" s="34" t="s">
+      <c r="E109" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F109" s="34" t="s">
-        <v>463</v>
+      <c r="F109" s="33" t="s">
+        <v>462</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="31">
         <v>116</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="C110" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D110" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="F110" s="34" t="s">
-        <v>464</v>
+      <c r="F110" s="33" t="s">
+        <v>463</v>
       </c>
       <c r="G110" s="28"/>
     </row>
@@ -5259,305 +5281,305 @@
       <c r="A111" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="32">
+      <c r="B111" s="31">
         <v>116</v>
       </c>
-      <c r="C111" s="33" t="s">
+      <c r="C111" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D111" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F111" s="34" t="s">
-        <v>465</v>
+      <c r="F111" s="33" t="s">
+        <v>464</v>
       </c>
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B112" s="115" t="s">
+      <c r="A112" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B112" s="125" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="126"/>
+      <c r="D112" s="126"/>
+      <c r="E112" s="126"/>
+      <c r="F112" s="126"/>
+      <c r="G112" s="127"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="38"/>
+      <c r="B113" s="125" t="s">
         <v>322</v>
       </c>
-      <c r="C112" s="116"/>
-      <c r="D112" s="116"/>
-      <c r="E112" s="116"/>
-      <c r="F112" s="116"/>
-      <c r="G112" s="117"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="39"/>
-      <c r="B113" s="115" t="s">
+      <c r="C113" s="126"/>
+      <c r="D113" s="126"/>
+      <c r="E113" s="126"/>
+      <c r="F113" s="126"/>
+      <c r="G113" s="127"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="38"/>
+      <c r="B114" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="116"/>
-      <c r="D113" s="116"/>
-      <c r="E113" s="116"/>
-      <c r="F113" s="116"/>
-      <c r="G113" s="117"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="39"/>
-      <c r="B114" s="115" t="s">
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="127"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="38"/>
+      <c r="B115" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="116"/>
-      <c r="D114" s="116"/>
-      <c r="E114" s="116"/>
-      <c r="F114" s="116"/>
-      <c r="G114" s="117"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="39"/>
-      <c r="B115" s="115" t="s">
+      <c r="C115" s="126"/>
+      <c r="D115" s="126"/>
+      <c r="E115" s="126"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="127"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="38"/>
+      <c r="B116" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="116"/>
-      <c r="D115" s="116"/>
-      <c r="E115" s="116"/>
-      <c r="F115" s="116"/>
-      <c r="G115" s="117"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="39"/>
-      <c r="B116" s="115" t="s">
+      <c r="C116" s="126"/>
+      <c r="D116" s="126"/>
+      <c r="E116" s="126"/>
+      <c r="F116" s="126"/>
+      <c r="G116" s="127"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="38"/>
+      <c r="B117" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" s="126"/>
+      <c r="D117" s="126"/>
+      <c r="E117" s="126"/>
+      <c r="F117" s="126"/>
+      <c r="G117" s="127"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="38"/>
+      <c r="B118" s="125" t="s">
         <v>326</v>
       </c>
-      <c r="C116" s="116"/>
-      <c r="D116" s="116"/>
-      <c r="E116" s="116"/>
-      <c r="F116" s="116"/>
-      <c r="G116" s="117"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="39"/>
-      <c r="B117" s="115" t="s">
-        <v>323</v>
-      </c>
-      <c r="C117" s="116"/>
-      <c r="D117" s="116"/>
-      <c r="E117" s="116"/>
-      <c r="F117" s="116"/>
-      <c r="G117" s="117"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="39"/>
-      <c r="B118" s="115" t="s">
+      <c r="C118" s="126"/>
+      <c r="D118" s="126"/>
+      <c r="E118" s="126"/>
+      <c r="F118" s="126"/>
+      <c r="G118" s="127"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="38"/>
+      <c r="B119" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="C118" s="116"/>
-      <c r="D118" s="116"/>
-      <c r="E118" s="116"/>
-      <c r="F118" s="116"/>
-      <c r="G118" s="117"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="39"/>
-      <c r="B119" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="C119" s="116"/>
-      <c r="D119" s="116"/>
-      <c r="E119" s="116"/>
-      <c r="F119" s="116"/>
-      <c r="G119" s="117"/>
+      <c r="C119" s="126"/>
+      <c r="D119" s="126"/>
+      <c r="E119" s="126"/>
+      <c r="F119" s="126"/>
+      <c r="G119" s="127"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="39"/>
-      <c r="B120" s="115" t="s">
-        <v>456</v>
-      </c>
-      <c r="C120" s="116"/>
-      <c r="D120" s="116"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="116"/>
-      <c r="G120" s="117"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="125" t="s">
+        <v>455</v>
+      </c>
+      <c r="C120" s="126"/>
+      <c r="D120" s="126"/>
+      <c r="E120" s="126"/>
+      <c r="F120" s="126"/>
+      <c r="G120" s="127"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="28"/>
-      <c r="B121" s="108" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="109"/>
-      <c r="D121" s="109"/>
-      <c r="E121" s="109"/>
-      <c r="F121" s="109"/>
-      <c r="G121" s="110"/>
+      <c r="B121" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="115"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="115"/>
+      <c r="G121" s="116"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="28"/>
-      <c r="B122" s="108" t="s">
-        <v>330</v>
-      </c>
-      <c r="C122" s="109"/>
-      <c r="D122" s="109"/>
-      <c r="E122" s="109"/>
-      <c r="F122" s="109"/>
-      <c r="G122" s="110"/>
+      <c r="B122" s="114" t="s">
+        <v>329</v>
+      </c>
+      <c r="C122" s="115"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
+      <c r="F122" s="115"/>
+      <c r="G122" s="116"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="28"/>
-      <c r="B123" s="108" t="s">
-        <v>331</v>
-      </c>
-      <c r="C123" s="109"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="109"/>
-      <c r="F123" s="109"/>
-      <c r="G123" s="110"/>
+      <c r="B123" s="114" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123" s="115"/>
+      <c r="D123" s="115"/>
+      <c r="E123" s="115"/>
+      <c r="F123" s="115"/>
+      <c r="G123" s="116"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="28"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="33"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="28"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
       <c r="G124" s="28"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="28"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="33"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="28"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
       <c r="G125" s="28"/>
     </row>
     <row r="126" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
+      <c r="A126" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="32">
+        <v>228</v>
+      </c>
+      <c r="B127" s="31">
         <v>336</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E127" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="34" t="s">
-        <v>471</v>
+      <c r="F127" s="33" t="s">
+        <v>470</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="B128" s="32">
+        <v>229</v>
+      </c>
+      <c r="B128" s="31">
         <v>333</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E128" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F128" s="34"/>
+      <c r="F128" s="33"/>
       <c r="G128" s="28"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B129" s="32">
+        <v>230</v>
+      </c>
+      <c r="B129" s="31">
         <v>338</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="C129" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E129" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="F129" s="34"/>
+      <c r="F129" s="33"/>
       <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B130" s="32">
+        <v>231</v>
+      </c>
+      <c r="B130" s="31">
         <v>370</v>
       </c>
-      <c r="C130" s="33" t="s">
+      <c r="C130" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E130" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E130" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F130" s="40"/>
+      <c r="F130" s="39"/>
       <c r="G130" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B131" s="32">
+        <v>232</v>
+      </c>
+      <c r="B131" s="31">
         <v>351</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C131" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F131" s="40"/>
-      <c r="G131" s="39"/>
+        <v>244</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F131" s="39"/>
+      <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="B132" s="32">
+        <v>233</v>
+      </c>
+      <c r="B132" s="31">
         <v>446</v>
       </c>
-      <c r="C132" s="33" t="s">
+      <c r="C132" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E132" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E132" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F132" s="61" t="s">
-        <v>375</v>
+      <c r="F132" s="60" t="s">
+        <v>374</v>
       </c>
       <c r="G132" s="28" t="s">
         <v>93</v>
@@ -5565,2295 +5587,2409 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B133" s="32">
+        <v>234</v>
+      </c>
+      <c r="B133" s="31">
         <v>384</v>
       </c>
-      <c r="C133" s="33" t="s">
+      <c r="C133" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E133" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F133" s="34" t="s">
-        <v>472</v>
+        <v>246</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="B134" s="32">
+        <v>235</v>
+      </c>
+      <c r="B134" s="31">
         <v>362</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E134" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E134" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F134" s="34"/>
+      <c r="F134" s="33"/>
       <c r="G134" s="28"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" s="32">
+        <v>236</v>
+      </c>
+      <c r="B135" s="31">
         <v>388</v>
       </c>
-      <c r="C135" s="33" t="s">
+      <c r="C135" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E135" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F135" s="34"/>
+      <c r="F135" s="33"/>
       <c r="G135" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B136" s="32">
+        <v>237</v>
+      </c>
+      <c r="B136" s="31">
         <v>389</v>
       </c>
-      <c r="C136" s="33" t="s">
+      <c r="C136" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E136" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F136" s="34"/>
+      <c r="F136" s="33"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B137" s="32">
+        <v>238</v>
+      </c>
+      <c r="B137" s="31">
         <v>342</v>
       </c>
-      <c r="C137" s="33" t="s">
+      <c r="C137" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="E137" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="34"/>
+      <c r="F137" s="33"/>
       <c r="G137" s="28"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="B138" s="32">
+        <v>467</v>
+      </c>
+      <c r="B138" s="31">
         <v>352</v>
       </c>
-      <c r="C138" s="33" t="s">
+      <c r="C138" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D138" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="34" t="s">
+      <c r="E138" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F138" s="34" t="s">
+      <c r="F138" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G138" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="G138" s="28" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B139" s="108" t="s">
-        <v>332</v>
-      </c>
-      <c r="C139" s="109"/>
-      <c r="D139" s="109"/>
-      <c r="E139" s="109"/>
-      <c r="F139" s="109"/>
-      <c r="G139" s="110"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="28"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="28"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B141" s="47"/>
-      <c r="C141" s="49" t="s">
+      <c r="A139" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="C139" s="115"/>
+      <c r="D139" s="115"/>
+      <c r="E139" s="115"/>
+      <c r="F139" s="115"/>
+      <c r="G139" s="116"/>
+    </row>
+    <row r="140" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="133"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="136"/>
+      <c r="D140" s="133"/>
+      <c r="E140" s="137"/>
+      <c r="F140" s="137"/>
+      <c r="G140" s="133"/>
+    </row>
+    <row r="141" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="139"/>
+      <c r="C141" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="28" t="s">
+      <c r="D141" s="139"/>
+      <c r="E141" s="139"/>
+      <c r="F141" s="139"/>
+      <c r="G141" s="139"/>
+    </row>
+    <row r="142" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="133" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" s="135">
+        <v>374</v>
+      </c>
+      <c r="C142" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" s="133" t="s">
+        <v>251</v>
+      </c>
+      <c r="E142" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="F142" s="137" t="s">
+        <v>575</v>
+      </c>
+      <c r="G142" s="133" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="B142" s="32">
+      <c r="B143" s="135">
+        <v>373</v>
+      </c>
+      <c r="C143" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="F143" s="137" t="s">
         <v>374</v>
       </c>
-      <c r="C142" s="33" t="s">
+      <c r="G143" s="133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="141" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" s="114" t="s">
+        <v>577</v>
+      </c>
+      <c r="C144" s="115"/>
+      <c r="D144" s="115"/>
+      <c r="E144" s="115"/>
+      <c r="F144" s="115"/>
+      <c r="G144" s="116"/>
+    </row>
+    <row r="145" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="133"/>
+      <c r="B145" s="135"/>
+      <c r="C145" s="136"/>
+      <c r="D145" s="133"/>
+      <c r="E145" s="137"/>
+      <c r="F145" s="137"/>
+      <c r="G145" s="133"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" s="46"/>
+      <c r="C146" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D146" s="46"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="46"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E142" s="34" t="s">
+      <c r="B147" s="31">
+        <v>374</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E147" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F142" s="34" t="s">
+      <c r="F147" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="G147" s="28" t="s">
         <v>475</v>
-      </c>
-      <c r="G142" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B143" s="32">
-        <v>373</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D143" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="G143" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B144" s="108" t="s">
-        <v>333</v>
-      </c>
-      <c r="C144" s="109"/>
-      <c r="D144" s="109"/>
-      <c r="E144" s="109"/>
-      <c r="F144" s="109"/>
-      <c r="G144" s="110"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="28"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="28"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B146" s="47"/>
-      <c r="C146" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" s="47"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
-    </row>
-    <row r="147" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B147" s="32">
-        <v>374</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D147" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="E147" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="G147" s="28" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B148" s="32">
+        <v>253</v>
+      </c>
+      <c r="B148" s="31">
         <v>373</v>
       </c>
-      <c r="C148" s="33" t="s">
+      <c r="C148" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D148" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="34" t="s">
+      <c r="E148" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F148" s="34" t="s">
-        <v>375</v>
+      <c r="F148" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="G148" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B149" s="108" t="s">
-        <v>479</v>
-      </c>
-      <c r="C149" s="109"/>
-      <c r="D149" s="109"/>
-      <c r="E149" s="109"/>
-      <c r="F149" s="109"/>
-      <c r="G149" s="110"/>
-    </row>
-    <row r="150" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B149" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="115"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="115"/>
+      <c r="F149" s="115"/>
+      <c r="G149" s="116"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="28"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="33"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="32"/>
       <c r="D150" s="28"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
       <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B151" s="47"/>
-      <c r="C151" s="49" t="s">
+      <c r="A151" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B151" s="46"/>
+      <c r="C151" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+    </row>
+    <row r="152" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B152" s="32">
+        <v>252</v>
+      </c>
+      <c r="B152" s="31">
         <v>374</v>
       </c>
-      <c r="C152" s="33" t="s">
+      <c r="C152" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="E152" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E152" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F152" s="34" t="s">
-        <v>480</v>
+      <c r="F152" s="33" t="s">
+        <v>476</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153" s="32">
+        <v>253</v>
+      </c>
+      <c r="B153" s="31">
         <v>373</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="34" t="s">
+      <c r="E153" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F153" s="34" t="s">
-        <v>375</v>
+      <c r="F153" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="G153" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B154" s="108" t="s">
-        <v>479</v>
-      </c>
-      <c r="C154" s="109"/>
-      <c r="D154" s="109"/>
-      <c r="E154" s="109"/>
-      <c r="F154" s="109"/>
-      <c r="G154" s="110"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B154" s="114" t="s">
+        <v>478</v>
+      </c>
+      <c r="C154" s="115"/>
+      <c r="D154" s="115"/>
+      <c r="E154" s="115"/>
+      <c r="F154" s="115"/>
+      <c r="G154" s="116"/>
+    </row>
+    <row r="155" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="28"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="33"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="32"/>
       <c r="D155" s="28"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
       <c r="G155" s="28"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="126" t="s">
-        <v>559</v>
-      </c>
-      <c r="B156" s="48"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="48"/>
+      <c r="A156" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B156" s="46"/>
+      <c r="C156" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="46"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" s="31">
+        <v>374</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B158" s="31">
+        <v>373</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B159" s="114" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" s="115"/>
+      <c r="D159" s="115"/>
+      <c r="E159" s="115"/>
+      <c r="F159" s="115"/>
+      <c r="G159" s="116"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="28"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="28"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="91" t="s">
+        <v>558</v>
+      </c>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="B162" s="31">
+        <v>128</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="D162" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="B157" s="32">
-        <v>128</v>
-      </c>
-      <c r="C157" s="33"/>
-      <c r="D157" s="28" t="s">
+      <c r="E162" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F162" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="E157" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F157" s="60" t="s">
+      <c r="G162" s="79" t="s">
         <v>562</v>
       </c>
-      <c r="G157" s="80" t="s">
+    </row>
+    <row r="163" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A163" s="28" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="28" t="s">
+      <c r="B163" s="31">
+        <v>127</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="D163" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="E163" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F163" s="59" t="s">
         <v>564</v>
       </c>
-      <c r="B158" s="32">
-        <v>127</v>
-      </c>
-      <c r="C158" s="33"/>
-      <c r="D158" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="E158" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F158" s="60" t="s">
+      <c r="G163" s="92" t="s">
         <v>565</v>
       </c>
-      <c r="G158" s="127" t="s">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="62" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="63" t="s">
+      <c r="B164" s="31"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="79"/>
+    </row>
+    <row r="165" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="B159" s="32"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="80"/>
-    </row>
-    <row r="160" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="28" t="s">
+      <c r="B165" s="31">
+        <v>933</v>
+      </c>
+      <c r="C165" s="32"/>
+      <c r="D165" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="B160" s="32">
-        <v>933</v>
-      </c>
-      <c r="C160" s="33"/>
-      <c r="D160" s="28" t="s">
+      <c r="E165" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="E160" s="34" t="s">
+      <c r="F165" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="G165" s="79"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B166" s="114" t="s">
         <v>570</v>
       </c>
-      <c r="F160" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="G160" s="80"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="128" t="s">
-        <v>362</v>
-      </c>
-      <c r="B161" s="108" t="s">
+      <c r="C166" s="120"/>
+      <c r="D166" s="120"/>
+      <c r="E166" s="120"/>
+      <c r="F166" s="120"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="94"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="28"/>
+      <c r="B167" s="114" t="s">
         <v>571</v>
       </c>
-      <c r="C161" s="121"/>
-      <c r="D161" s="121"/>
-      <c r="E161" s="121"/>
-      <c r="F161" s="121"/>
-      <c r="G161" s="122"/>
-      <c r="H161" s="129"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
-      <c r="B162" s="108" t="s">
-        <v>572</v>
-      </c>
-      <c r="C162" s="121"/>
-      <c r="D162" s="121"/>
-      <c r="E162" s="121"/>
-      <c r="F162" s="121"/>
-      <c r="G162" s="122"/>
-      <c r="H162" s="129"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="28"/>
-      <c r="B163" s="81"/>
-      <c r="C163" s="78"/>
-      <c r="D163" s="78"/>
-      <c r="E163" s="78"/>
-      <c r="F163" s="78"/>
-      <c r="G163" s="79"/>
-      <c r="H163" s="129"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="43" t="s">
+      <c r="C167" s="120"/>
+      <c r="D167" s="120"/>
+      <c r="E167" s="120"/>
+      <c r="F167" s="120"/>
+      <c r="G167" s="121"/>
+      <c r="H167" s="94"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="28"/>
+      <c r="B168" s="80"/>
+      <c r="C168" s="77"/>
+      <c r="D168" s="77"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="77"/>
+      <c r="G168" s="78"/>
+      <c r="H168" s="94"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B164" s="44"/>
-      <c r="C164" s="45"/>
-      <c r="D164" s="43"/>
-      <c r="E164" s="46"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="43"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49" t="s">
+      <c r="B169" s="43"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="42"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B170" s="48"/>
+      <c r="C170" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="47"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="47"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B166" s="32">
-        <v>350</v>
-      </c>
-      <c r="C166" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E166" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="F166" s="34"/>
-      <c r="G166" s="30"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="B167" s="40">
-        <v>358</v>
-      </c>
-      <c r="C167" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E167" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="F167" s="41"/>
-      <c r="G167" s="39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B168" s="53">
-        <v>355</v>
-      </c>
-      <c r="C168" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E168" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F168" s="54"/>
-      <c r="G168" s="55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B169" s="51">
-        <v>212</v>
-      </c>
-      <c r="C169" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E169" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="F169" s="51"/>
-      <c r="G169" s="50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B170" s="32">
-        <v>639</v>
-      </c>
-      <c r="C170" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E170" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F170" s="34"/>
-      <c r="G170" s="30"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="46"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="B171" s="40">
-        <v>235</v>
-      </c>
-      <c r="C171" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" s="31">
+        <v>350</v>
+      </c>
+      <c r="C171" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D171" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="E171" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G171" s="52" t="s">
-        <v>484</v>
-      </c>
+      <c r="D171" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E171" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F171" s="33"/>
+      <c r="G171" s="30"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B172" s="40">
-        <v>234</v>
-      </c>
-      <c r="C172" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" s="39">
+        <v>358</v>
+      </c>
+      <c r="C172" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="39" t="s">
-        <v>154</v>
+      <c r="D172" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="E172" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F172" s="40">
-        <v>6008189</v>
-      </c>
-      <c r="G172" s="39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="F172" s="40"/>
+      <c r="G172" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A173" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="B173" s="40">
-        <v>235</v>
-      </c>
-      <c r="C173" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D173" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E173" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B173" s="52">
+        <v>355</v>
+      </c>
+      <c r="C173" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E173" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G173" s="52" t="s">
-        <v>287</v>
+      <c r="F173" s="53"/>
+      <c r="G173" s="54" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B174" s="40">
-        <v>234</v>
-      </c>
-      <c r="C174" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D174" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E174" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F174" s="40">
-        <v>85899</v>
+        <v>260</v>
+      </c>
+      <c r="B174" s="50">
+        <v>212</v>
+      </c>
+      <c r="C174" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E174" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F174" s="50"/>
+      <c r="G174" s="49" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="B175" s="40">
-        <v>235</v>
-      </c>
-      <c r="C175" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D175" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E175" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B175" s="31">
+        <v>639</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E175" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G175" s="52" t="s">
-        <v>485</v>
-      </c>
+      <c r="F175" s="33"/>
+      <c r="G175" s="30"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B176" s="39">
+        <v>235</v>
+      </c>
+      <c r="C176" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G176" s="51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B177" s="39">
+        <v>234</v>
+      </c>
+      <c r="C177" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E177" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F177" s="39">
+        <v>6008189</v>
+      </c>
+      <c r="G177" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" s="39">
+        <v>235</v>
+      </c>
+      <c r="C178" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D178" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" s="39">
+        <v>234</v>
+      </c>
+      <c r="C179" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D179" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E179" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F179" s="39">
+        <v>85899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B180" s="39">
+        <v>235</v>
+      </c>
+      <c r="C180" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D180" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G180" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B181" s="39">
+        <v>234</v>
+      </c>
+      <c r="C181" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D181" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E181" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F181" s="83">
+        <v>12234</v>
+      </c>
+      <c r="G181" s="38"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C182" s="129"/>
+      <c r="D182" s="129"/>
+      <c r="E182" s="129"/>
+      <c r="F182" s="129"/>
+      <c r="G182" s="130"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="30"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="38"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="38"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="B184" s="46"/>
+      <c r="C184" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D184" s="46"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="46"/>
+    </row>
+    <row r="185" spans="1:7" s="87" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A185" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="E185" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G185" s="59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D186" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="E186" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="F186" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="G186" s="59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="E187" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="G187" s="59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D188" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="E188" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" s="33"/>
+    </row>
+    <row r="189" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" s="59" t="s">
+        <v>506</v>
+      </c>
+      <c r="E189" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F189" s="33"/>
+      <c r="G189" s="59"/>
+    </row>
+    <row r="190" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D190" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="E190" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F190" s="33"/>
+      <c r="G190" s="59"/>
+    </row>
+    <row r="191" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="B191" s="31">
+        <v>662</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D191" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="E191" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F191" s="33"/>
+      <c r="G191" s="59"/>
+    </row>
+    <row r="192" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="B192" s="31">
+        <v>828</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D192" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="E192" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F192" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="G192" s="59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B193" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C193" s="115"/>
+      <c r="D193" s="115"/>
+      <c r="E193" s="115"/>
+      <c r="F193" s="115"/>
+      <c r="G193" s="116"/>
+    </row>
+    <row r="194" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="57"/>
+      <c r="B194" s="80"/>
+      <c r="C194" s="81"/>
+      <c r="D194" s="81"/>
+      <c r="E194" s="81"/>
+      <c r="F194" s="81"/>
+      <c r="G194" s="82"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="B176" s="40">
-        <v>234</v>
-      </c>
-      <c r="C176" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D176" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E176" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F176" s="84">
-        <v>12234</v>
-      </c>
-      <c r="G176" s="39"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B177" s="112" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" s="113"/>
-      <c r="D177" s="113"/>
-      <c r="E177" s="113"/>
-      <c r="F177" s="113"/>
-      <c r="G177" s="114"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="30"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="40"/>
-      <c r="F178" s="40"/>
-      <c r="G178" s="39"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="B179" s="47"/>
-      <c r="C179" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="47"/>
-    </row>
-    <row r="180" spans="1:7" s="88" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="B180" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C180" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D180" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="E180" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F180" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="G180" s="60" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="B181" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D181" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="E181" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="F181" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="G181" s="60" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="B182" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C182" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D182" s="60" t="s">
-        <v>499</v>
-      </c>
-      <c r="E182" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="G182" s="60" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="60" t="s">
-        <v>502</v>
-      </c>
-      <c r="B183" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C183" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D183" s="60" t="s">
-        <v>504</v>
-      </c>
-      <c r="E183" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F183" s="34"/>
-    </row>
-    <row r="184" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="B184" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C184" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D184" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="E184" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F184" s="34"/>
-      <c r="G184" s="60"/>
-    </row>
-    <row r="185" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="60" t="s">
-        <v>508</v>
-      </c>
-      <c r="B185" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C185" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" s="60" t="s">
-        <v>510</v>
-      </c>
-      <c r="E185" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F185" s="34"/>
-      <c r="G185" s="60"/>
-    </row>
-    <row r="186" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="60" t="s">
-        <v>511</v>
-      </c>
-      <c r="B186" s="32">
-        <v>662</v>
-      </c>
-      <c r="C186" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D186" s="60" t="s">
-        <v>512</v>
-      </c>
-      <c r="E186" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F186" s="34"/>
-      <c r="G186" s="60"/>
-    </row>
-    <row r="187" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="60" t="s">
-        <v>513</v>
-      </c>
-      <c r="B187" s="32">
-        <v>828</v>
-      </c>
-      <c r="C187" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D187" s="60" t="s">
-        <v>514</v>
-      </c>
-      <c r="E187" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F187" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="G187" s="60" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B188" s="108" t="s">
-        <v>335</v>
-      </c>
-      <c r="C188" s="109"/>
-      <c r="D188" s="109"/>
-      <c r="E188" s="109"/>
-      <c r="F188" s="109"/>
-      <c r="G188" s="110"/>
-    </row>
-    <row r="189" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="58"/>
-      <c r="B189" s="81"/>
-      <c r="C189" s="82"/>
-      <c r="D189" s="82"/>
-      <c r="E189" s="82"/>
-      <c r="F189" s="82"/>
-      <c r="G189" s="83"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="B190" s="47"/>
-      <c r="C190" s="49" t="s">
+      <c r="B195" s="46"/>
+      <c r="C195" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="47"/>
-      <c r="E190" s="47"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="47"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="B191" s="40">
-        <v>687</v>
-      </c>
-      <c r="C191" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D191" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="E191" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F191" s="56"/>
-      <c r="G191" s="39"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B192" s="40">
-        <v>236</v>
-      </c>
-      <c r="C192" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D192" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="E192" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F192" s="56" t="s">
-        <v>527</v>
-      </c>
-      <c r="G192" s="39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B193" s="40">
-        <v>212</v>
-      </c>
-      <c r="C193" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D193" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E193" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F193" s="56"/>
-      <c r="G193" s="39"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="B194" s="40">
-        <v>380</v>
-      </c>
-      <c r="C194" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D194" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="E194" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F194" s="56"/>
-      <c r="G194" s="39"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="B195" s="40">
-        <v>355</v>
-      </c>
-      <c r="C195" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D195" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E195" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F195" s="56"/>
-      <c r="G195" s="39"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="46"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="B196" s="40">
-        <v>648</v>
-      </c>
-      <c r="C196" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B196" s="39">
+        <v>687</v>
+      </c>
+      <c r="C196" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D196" s="39" t="s">
-        <v>520</v>
-      </c>
-      <c r="E196" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F196" s="56"/>
-      <c r="G196" s="39"/>
+      <c r="D196" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E196" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="55"/>
+      <c r="G196" s="38"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="B197" s="40">
-        <v>649</v>
-      </c>
-      <c r="C197" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B197" s="39">
+        <v>236</v>
+      </c>
+      <c r="C197" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D197" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="E197" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="F197" s="56"/>
-      <c r="G197" s="39"/>
+      <c r="D197" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E197" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F197" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="G197" s="38" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="B198" s="40">
-        <v>782</v>
-      </c>
-      <c r="C198" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="E198" s="59" t="s">
-        <v>494</v>
-      </c>
-      <c r="F198" s="40" t="s">
-        <v>525</v>
-      </c>
-      <c r="G198" s="39" t="s">
-        <v>526</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B198" s="39">
+        <v>212</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D198" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E198" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F198" s="55"/>
+      <c r="G198" s="38"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B199" s="112" t="s">
-        <v>529</v>
-      </c>
-      <c r="C199" s="113"/>
-      <c r="D199" s="113"/>
-      <c r="E199" s="113"/>
-      <c r="F199" s="113"/>
-      <c r="G199" s="114"/>
+      <c r="A199" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B199" s="39">
+        <v>380</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D199" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="E199" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F199" s="55"/>
+      <c r="G199" s="38"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="58"/>
-      <c r="B200" s="85"/>
-      <c r="C200" s="86"/>
-      <c r="D200" s="86"/>
-      <c r="E200" s="86"/>
-      <c r="F200" s="86"/>
-      <c r="G200" s="87"/>
+      <c r="A200" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B200" s="39">
+        <v>355</v>
+      </c>
+      <c r="C200" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D200" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F200" s="55"/>
+      <c r="G200" s="38"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B201" s="48"/>
-      <c r="C201" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D201" s="47"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="49"/>
-      <c r="G201" s="47"/>
+      <c r="A201" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="B201" s="39">
+        <v>648</v>
+      </c>
+      <c r="C201" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D201" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="E201" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F201" s="55"/>
+      <c r="G201" s="38"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B202" s="32">
-        <v>349</v>
-      </c>
-      <c r="C202" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E202" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F202" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="G202" s="30" t="s">
-        <v>271</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="B202" s="39">
+        <v>649</v>
+      </c>
+      <c r="C202" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D202" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="E202" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" s="55"/>
+      <c r="G202" s="38"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="B203" s="39">
+        <v>782</v>
+      </c>
+      <c r="C203" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E203" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="F203" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="G203" s="38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B204" s="128" t="s">
+        <v>528</v>
+      </c>
+      <c r="C204" s="129"/>
+      <c r="D204" s="129"/>
+      <c r="E204" s="129"/>
+      <c r="F204" s="129"/>
+      <c r="G204" s="130"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="57"/>
+      <c r="B205" s="84"/>
+      <c r="C205" s="85"/>
+      <c r="D205" s="85"/>
+      <c r="E205" s="85"/>
+      <c r="F205" s="85"/>
+      <c r="G205" s="86"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B206" s="47"/>
+      <c r="C206" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" s="46"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="46"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B207" s="31">
+        <v>349</v>
+      </c>
+      <c r="C207" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E207" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F207" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="G207" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B203" s="32">
+      <c r="B208" s="31">
         <v>750</v>
       </c>
-      <c r="C203" s="36" t="s">
+      <c r="C208" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D203" s="30" t="s">
+      <c r="D208" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E203" s="34" t="s">
+      <c r="E208" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F203" s="34"/>
-      <c r="G203" s="30" t="s">
+      <c r="F208" s="33"/>
+      <c r="G208" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="30" t="s">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B204" s="32">
+      <c r="B209" s="31">
         <v>559</v>
       </c>
-      <c r="C204" s="36" t="s">
+      <c r="C209" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D204" s="30" t="s">
+      <c r="D209" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E204" s="34" t="s">
+      <c r="E209" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F204" s="34"/>
-      <c r="G204" s="30" t="s">
+      <c r="F209" s="33"/>
+      <c r="G209" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="30" t="s">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B205" s="32">
+      <c r="B210" s="31">
         <v>751</v>
       </c>
-      <c r="C205" s="36" t="s">
+      <c r="C210" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D205" s="30" t="s">
+      <c r="D210" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E205" s="34" t="s">
+      <c r="E210" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F205" s="34"/>
-      <c r="G205" s="30" t="s">
+      <c r="F210" s="33"/>
+      <c r="G210" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="30" t="s">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B206" s="32">
+      <c r="B211" s="31">
         <v>352</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C211" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D206" s="30" t="s">
+      <c r="D211" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E206" s="34" t="s">
+      <c r="E211" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F206" s="34" t="s">
+      <c r="F211" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="G211" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B212" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C212" s="129"/>
+      <c r="D212" s="129"/>
+      <c r="E212" s="129"/>
+      <c r="F212" s="129"/>
+      <c r="G212" s="130"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="30"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="30"/>
+    </row>
+    <row r="214" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A214" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="G206" s="30" t="s">
+      <c r="B214" s="47"/>
+      <c r="C214" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214" s="46"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="64"/>
+      <c r="G214" s="46" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B215" s="31">
+        <v>248</v>
+      </c>
+      <c r="C215" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="E215" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F215" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="G215" s="30" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B216" s="31">
+        <v>1300</v>
+      </c>
+      <c r="C216" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D216" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="E216" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F216" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="G216" s="30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="B217" s="31">
+        <v>610</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="E217" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F217" s="39">
+        <v>0</v>
+      </c>
+      <c r="G217" s="30"/>
+    </row>
+    <row r="218" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="B218" s="31">
+        <v>352</v>
+      </c>
+      <c r="C218" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D218" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E218" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F218" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G218" s="30"/>
+    </row>
+    <row r="219" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B219" s="114" t="s">
+        <v>544</v>
+      </c>
+      <c r="C219" s="115"/>
+      <c r="D219" s="115"/>
+      <c r="E219" s="115"/>
+      <c r="F219" s="115"/>
+      <c r="G219" s="116"/>
+    </row>
+    <row r="220" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="57"/>
+      <c r="B220" s="80"/>
+      <c r="C220" s="81"/>
+      <c r="D220" s="81"/>
+      <c r="E220" s="81"/>
+      <c r="F220" s="81"/>
+      <c r="G220" s="82"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B221" s="43"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="42"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="42"/>
+    </row>
+    <row r="222" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="46" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B207" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="C207" s="113"/>
-      <c r="D207" s="113"/>
-      <c r="E207" s="113"/>
-      <c r="F207" s="113"/>
-      <c r="G207" s="114"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="30"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="30"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="30"/>
-    </row>
-    <row r="209" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A209" s="47" t="s">
+      <c r="B222" s="47"/>
+      <c r="C222" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="46"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B223" s="31">
+        <v>610</v>
+      </c>
+      <c r="C223" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E223" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F223" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="G223" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B224" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="C224" s="129"/>
+      <c r="D224" s="129"/>
+      <c r="E224" s="129"/>
+      <c r="F224" s="129"/>
+      <c r="G224" s="130"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="57"/>
+      <c r="B225" s="84"/>
+      <c r="C225" s="85"/>
+      <c r="D225" s="85"/>
+      <c r="E225" s="85"/>
+      <c r="F225" s="85"/>
+      <c r="G225" s="86"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="B226" s="46"/>
+      <c r="C226" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D226" s="46"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="46"/>
+      <c r="G226" s="46"/>
+    </row>
+    <row r="227" spans="1:7" s="87" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C227" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D227" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="E227" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G227" s="59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="C228" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D228" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="E228" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="F228" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="G228" s="59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C229" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D229" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="E229" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F229" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="G229" s="59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C230" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D230" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="E230" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F230" s="33"/>
+    </row>
+    <row r="231" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C231" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D231" s="59" t="s">
+        <v>506</v>
+      </c>
+      <c r="E231" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F231" s="33"/>
+      <c r="G231" s="59"/>
+    </row>
+    <row r="232" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C232" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D232" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="E232" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F232" s="33"/>
+      <c r="G232" s="59"/>
+    </row>
+    <row r="233" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="B233" s="31">
+        <v>662</v>
+      </c>
+      <c r="C233" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D233" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="E233" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F233" s="33"/>
+      <c r="G233" s="59"/>
+    </row>
+    <row r="234" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="B234" s="31">
+        <v>828</v>
+      </c>
+      <c r="C234" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D234" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="E234" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F234" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="G234" s="59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B235" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C235" s="115"/>
+      <c r="D235" s="115"/>
+      <c r="E235" s="115"/>
+      <c r="F235" s="115"/>
+      <c r="G235" s="116"/>
+    </row>
+    <row r="236" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="57"/>
+      <c r="B236" s="80"/>
+      <c r="C236" s="81"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="81"/>
+      <c r="F236" s="81"/>
+      <c r="G236" s="82"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B237" s="46"/>
+      <c r="C237" s="46"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="46"/>
+      <c r="F237" s="46"/>
+      <c r="G237" s="46"/>
+    </row>
+    <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A238" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B238" s="31">
+        <v>91</v>
+      </c>
+      <c r="C238" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E238" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F238" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G238" s="88" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B239" s="89">
+        <v>206</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D239" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E239" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="F239" s="33"/>
+      <c r="G239" s="30"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B240" s="31">
+        <v>207</v>
+      </c>
+      <c r="C240" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D240" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E240" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F240" s="33"/>
+      <c r="G240" s="30"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B241" s="31">
+        <v>140</v>
+      </c>
+      <c r="C241" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D241" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E241" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="F241" s="33"/>
+      <c r="G241" s="30"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B242" s="31">
+        <v>387</v>
+      </c>
+      <c r="C242" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E242" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="F242" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="G242" s="30" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B243" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="C243" s="131"/>
+      <c r="D243" s="131"/>
+      <c r="E243" s="131"/>
+      <c r="F243" s="131"/>
+      <c r="G243" s="131"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="57"/>
+      <c r="B244" s="90"/>
+      <c r="C244" s="90"/>
+      <c r="D244" s="90"/>
+      <c r="E244" s="90"/>
+      <c r="F244" s="90"/>
+      <c r="G244" s="90"/>
+    </row>
+    <row r="245" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A245" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="B245" s="47"/>
+      <c r="C245" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D245" s="46"/>
+      <c r="E245" s="48"/>
+      <c r="F245" s="64"/>
+      <c r="G245" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="B209" s="48"/>
-      <c r="C209" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D209" s="47"/>
-      <c r="E209" s="49"/>
-      <c r="F209" s="65"/>
-      <c r="G209" s="47" t="s">
+    </row>
+    <row r="246" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="30" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="30" t="s">
+      <c r="B246" s="31">
+        <v>248</v>
+      </c>
+      <c r="C246" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="B210" s="32">
-        <v>248</v>
-      </c>
-      <c r="C210" s="36" t="s">
+      <c r="E246" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F246" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="G246" s="30" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B247" s="31">
+        <v>1300</v>
+      </c>
+      <c r="C247" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D210" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="E210" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F210" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="G210" s="30" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="30" t="s">
+      <c r="D247" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="B211" s="32">
-        <v>1300</v>
-      </c>
-      <c r="C211" s="36" t="s">
+      <c r="E247" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F247" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="G247" s="30" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="B248" s="31">
+        <v>610</v>
+      </c>
+      <c r="C248" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="E211" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F211" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G211" s="30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="30" t="s">
+      <c r="D248" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="E248" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F248" s="39">
+        <v>1000</v>
+      </c>
+      <c r="G248" s="30"/>
+    </row>
+    <row r="249" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="B212" s="32">
-        <v>610</v>
-      </c>
-      <c r="C212" s="36" t="s">
+      <c r="B249" s="31">
+        <v>352</v>
+      </c>
+      <c r="C249" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D212" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="E212" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F212" s="40">
-        <v>0</v>
-      </c>
-      <c r="G212" s="30"/>
-    </row>
-    <row r="213" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="30" t="s">
+      <c r="D249" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="B213" s="32">
-        <v>352</v>
-      </c>
-      <c r="C213" s="36" t="s">
+      <c r="E249" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F249" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G249" s="30"/>
+    </row>
+    <row r="250" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B250" s="114" t="s">
+        <v>544</v>
+      </c>
+      <c r="C250" s="115"/>
+      <c r="D250" s="115"/>
+      <c r="E250" s="115"/>
+      <c r="F250" s="115"/>
+      <c r="G250" s="116"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="28"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="33"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="28"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B252" s="46"/>
+      <c r="C252" s="46"/>
+      <c r="D252" s="46"/>
+      <c r="E252" s="46"/>
+      <c r="F252" s="46"/>
+      <c r="G252" s="46"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B253" s="31">
+        <v>354</v>
+      </c>
+      <c r="C253" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D213" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="E213" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F213" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G213" s="30"/>
-    </row>
-    <row r="214" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B214" s="108" t="s">
-        <v>545</v>
-      </c>
-      <c r="C214" s="109"/>
-      <c r="D214" s="109"/>
-      <c r="E214" s="109"/>
-      <c r="F214" s="109"/>
-      <c r="G214" s="110"/>
-    </row>
-    <row r="215" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="58"/>
-      <c r="B215" s="81"/>
-      <c r="C215" s="82"/>
-      <c r="D215" s="82"/>
-      <c r="E215" s="82"/>
-      <c r="F215" s="82"/>
-      <c r="G215" s="83"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B216" s="44"/>
-      <c r="C216" s="45"/>
-      <c r="D216" s="43"/>
-      <c r="E216" s="46"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="43"/>
-    </row>
-    <row r="217" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="B217" s="48"/>
-      <c r="C217" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D217" s="47"/>
-      <c r="E217" s="49"/>
-      <c r="F217" s="49"/>
-      <c r="G217" s="47" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="B218" s="32">
-        <v>610</v>
-      </c>
-      <c r="C218" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E218" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F218" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="G218" s="30" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B219" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="C219" s="113"/>
-      <c r="D219" s="113"/>
-      <c r="E219" s="113"/>
-      <c r="F219" s="113"/>
-      <c r="G219" s="114"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="58"/>
-      <c r="B220" s="85"/>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
-      <c r="E220" s="86"/>
-      <c r="F220" s="86"/>
-      <c r="G220" s="87"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="B221" s="47"/>
-      <c r="C221" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D221" s="47"/>
-      <c r="E221" s="47"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-    </row>
-    <row r="222" spans="1:7" s="88" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="B222" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C222" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D222" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="E222" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F222" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="G222" s="60" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="B223" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C223" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D223" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="E223" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="F223" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="G223" s="60" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="B224" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C224" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D224" s="60" t="s">
-        <v>499</v>
-      </c>
-      <c r="E224" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F224" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="G224" s="60" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="60" t="s">
-        <v>502</v>
-      </c>
-      <c r="B225" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C225" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D225" s="60" t="s">
-        <v>504</v>
-      </c>
-      <c r="E225" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F225" s="34"/>
-    </row>
-    <row r="226" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="B226" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C226" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D226" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="E226" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F226" s="34"/>
-      <c r="G226" s="60"/>
-    </row>
-    <row r="227" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="60" t="s">
-        <v>508</v>
-      </c>
-      <c r="B227" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C227" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D227" s="60" t="s">
-        <v>510</v>
-      </c>
-      <c r="E227" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F227" s="34"/>
-      <c r="G227" s="60"/>
-    </row>
-    <row r="228" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="60" t="s">
-        <v>511</v>
-      </c>
-      <c r="B228" s="32">
-        <v>662</v>
-      </c>
-      <c r="C228" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D228" s="60" t="s">
-        <v>512</v>
-      </c>
-      <c r="E228" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F228" s="34"/>
-      <c r="G228" s="60"/>
-    </row>
-    <row r="229" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="60" t="s">
-        <v>513</v>
-      </c>
-      <c r="B229" s="32">
-        <v>828</v>
-      </c>
-      <c r="C229" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D229" s="60" t="s">
-        <v>514</v>
-      </c>
-      <c r="E229" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F229" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="G229" s="60" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B230" s="108" t="s">
-        <v>335</v>
-      </c>
-      <c r="C230" s="109"/>
-      <c r="D230" s="109"/>
-      <c r="E230" s="109"/>
-      <c r="F230" s="109"/>
-      <c r="G230" s="110"/>
-    </row>
-    <row r="231" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="58"/>
-      <c r="B231" s="81"/>
-      <c r="C231" s="82"/>
-      <c r="D231" s="82"/>
-      <c r="E231" s="82"/>
-      <c r="F231" s="82"/>
-      <c r="G231" s="83"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B232" s="47"/>
-      <c r="C232" s="47"/>
-      <c r="D232" s="47"/>
-      <c r="E232" s="47"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="47"/>
-    </row>
-    <row r="233" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A233" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B233" s="32">
-        <v>91</v>
-      </c>
-      <c r="C233" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D233" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E233" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="F233" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G233" s="89" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B234" s="90">
-        <v>206</v>
-      </c>
-      <c r="C234" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D234" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="E234" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="F234" s="34"/>
-      <c r="G234" s="30"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B235" s="32">
-        <v>207</v>
-      </c>
-      <c r="C235" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D235" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E235" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="F235" s="34"/>
-      <c r="G235" s="30"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="B236" s="32">
-        <v>140</v>
-      </c>
-      <c r="C236" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D236" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E236" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="F236" s="34"/>
-      <c r="G236" s="30"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="B237" s="32">
-        <v>387</v>
-      </c>
-      <c r="C237" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="E237" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="F237" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="G237" s="30" t="s">
+      <c r="D253" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E253" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F253" s="60" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B238" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="C238" s="111"/>
-      <c r="D238" s="111"/>
-      <c r="E238" s="111"/>
-      <c r="F238" s="111"/>
-      <c r="G238" s="111"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="58"/>
-      <c r="B239" s="91"/>
-      <c r="C239" s="91"/>
-      <c r="D239" s="91"/>
-      <c r="E239" s="91"/>
-      <c r="F239" s="91"/>
-      <c r="G239" s="91"/>
-    </row>
-    <row r="240" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A240" s="47" t="s">
-        <v>532</v>
-      </c>
-      <c r="B240" s="48"/>
-      <c r="C240" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D240" s="47"/>
-      <c r="E240" s="49"/>
-      <c r="F240" s="65"/>
-      <c r="G240" s="47" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="B241" s="32">
-        <v>248</v>
-      </c>
-      <c r="C241" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="E241" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F241" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="G241" s="30" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="B242" s="32">
-        <v>1300</v>
-      </c>
-      <c r="C242" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="E242" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F242" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G242" s="30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="B243" s="32">
-        <v>610</v>
-      </c>
-      <c r="C243" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="E243" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F243" s="40">
-        <v>1000</v>
-      </c>
-      <c r="G243" s="30"/>
-    </row>
-    <row r="244" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="B244" s="32">
-        <v>352</v>
-      </c>
-      <c r="C244" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="E244" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F244" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G244" s="30"/>
-    </row>
-    <row r="245" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B245" s="108" t="s">
-        <v>545</v>
-      </c>
-      <c r="C245" s="109"/>
-      <c r="D245" s="109"/>
-      <c r="E245" s="109"/>
-      <c r="F245" s="109"/>
-      <c r="G245" s="110"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="28"/>
-      <c r="B246" s="32"/>
-      <c r="C246" s="33"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="60"/>
-      <c r="G246" s="28"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="47"/>
-      <c r="E247" s="47"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="47"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B248" s="32">
-        <v>354</v>
-      </c>
-      <c r="C248" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D248" s="30" t="s">
+      <c r="G253" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="E248" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="F248" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="G248" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B249" s="108" t="s">
-        <v>343</v>
-      </c>
-      <c r="C249" s="109"/>
-      <c r="D249" s="109"/>
-      <c r="E249" s="109"/>
-      <c r="F249" s="109"/>
-      <c r="G249" s="110"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="30"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="36"/>
-      <c r="D250" s="30"/>
-      <c r="E250" s="61"/>
-      <c r="F250" s="61"/>
-      <c r="G250" s="30"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="30"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="36"/>
-      <c r="D251" s="30"/>
-      <c r="E251" s="34"/>
-      <c r="F251" s="34"/>
-      <c r="G251" s="30"/>
-    </row>
-    <row r="252" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B252" s="48"/>
-      <c r="C252" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E252" s="49"/>
-      <c r="F252" s="49"/>
-      <c r="G252" s="47"/>
-    </row>
-    <row r="253" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B253" s="32">
-        <v>96</v>
-      </c>
-      <c r="C253" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D253" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E253" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F253" s="34"/>
-      <c r="G253" s="30"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B254" s="32">
-        <v>329</v>
-      </c>
-      <c r="C254" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D254" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E254" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F254" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="G254" s="28" t="s">
-        <v>186</v>
-      </c>
+      <c r="A254" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B254" s="114" t="s">
+        <v>342</v>
+      </c>
+      <c r="C254" s="115"/>
+      <c r="D254" s="115"/>
+      <c r="E254" s="115"/>
+      <c r="F254" s="115"/>
+      <c r="G254" s="116"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B255" s="108" t="s">
-        <v>554</v>
-      </c>
-      <c r="C255" s="109"/>
-      <c r="D255" s="109"/>
-      <c r="E255" s="109"/>
-      <c r="F255" s="109"/>
-      <c r="G255" s="110"/>
+      <c r="A255" s="30"/>
+      <c r="B255" s="31"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="30"/>
+      <c r="E255" s="60"/>
+      <c r="F255" s="60"/>
+      <c r="G255" s="30"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="30"/>
-      <c r="B256" s="32"/>
-      <c r="C256" s="36"/>
+      <c r="B256" s="31"/>
+      <c r="C256" s="35"/>
       <c r="D256" s="30"/>
-      <c r="E256" s="34"/>
-      <c r="F256" s="34"/>
-      <c r="G256" s="28"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B257" s="48"/>
-      <c r="C257" s="49" t="s">
+      <c r="E256" s="33"/>
+      <c r="F256" s="33"/>
+      <c r="G256" s="30"/>
+    </row>
+    <row r="257" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B257" s="47"/>
+      <c r="C257" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D257" s="47"/>
-      <c r="E257" s="49"/>
-      <c r="F257" s="49"/>
-      <c r="G257" s="47"/>
+      <c r="D257" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E257" s="48"/>
+      <c r="F257" s="48"/>
+      <c r="G257" s="46"/>
     </row>
     <row r="258" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A258" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B258" s="32">
-        <v>97</v>
-      </c>
-      <c r="C258" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B258" s="31">
+        <v>96</v>
+      </c>
+      <c r="C258" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D258" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E258" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F258" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="G258" s="30" t="s">
-        <v>178</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E258" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F258" s="33"/>
+      <c r="G258" s="30"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B259" s="32">
-        <v>28</v>
-      </c>
-      <c r="C259" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B259" s="31">
+        <v>329</v>
+      </c>
+      <c r="C259" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D259" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E259" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F259" s="34" t="s">
-        <v>357</v>
+        <v>111</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F259" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="G259" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B260" s="108" t="s">
-        <v>344</v>
-      </c>
-      <c r="C260" s="109"/>
-      <c r="D260" s="109"/>
-      <c r="E260" s="109"/>
-      <c r="F260" s="109"/>
-      <c r="G260" s="110"/>
+      <c r="A260" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B260" s="114" t="s">
+        <v>553</v>
+      </c>
+      <c r="C260" s="115"/>
+      <c r="D260" s="115"/>
+      <c r="E260" s="115"/>
+      <c r="F260" s="115"/>
+      <c r="G260" s="116"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="30"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="36"/>
+      <c r="B261" s="31"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="30"/>
-      <c r="E261" s="34"/>
-      <c r="F261" s="34"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="33"/>
       <c r="G261" s="28"/>
     </row>
-    <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B262" s="48"/>
-      <c r="C262" s="49" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B262" s="47"/>
+      <c r="C262" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D262" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E262" s="49"/>
-      <c r="F262" s="49"/>
-      <c r="G262" s="47"/>
+      <c r="D262" s="46"/>
+      <c r="E262" s="48"/>
+      <c r="F262" s="48"/>
+      <c r="G262" s="46"/>
     </row>
     <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A263" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B263" s="32">
-        <v>479</v>
-      </c>
-      <c r="C263" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B263" s="31">
+        <v>97</v>
+      </c>
+      <c r="C263" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D263" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E263" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F263" s="34" t="s">
-        <v>555</v>
+        <v>177</v>
+      </c>
+      <c r="E263" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F263" s="33" t="s">
+        <v>554</v>
       </c>
       <c r="G263" s="30" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B264" s="32">
-        <v>142</v>
-      </c>
-      <c r="C264" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B264" s="31">
+        <v>28</v>
+      </c>
+      <c r="C264" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E264" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E264" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F264" s="34" t="s">
-        <v>357</v>
+      <c r="F264" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="G264" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="B265" s="108" t="s">
-        <v>345</v>
-      </c>
-      <c r="C265" s="109"/>
-      <c r="D265" s="109"/>
-      <c r="E265" s="109"/>
-      <c r="F265" s="109"/>
-      <c r="G265" s="110"/>
+      <c r="A265" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B265" s="114" t="s">
+        <v>343</v>
+      </c>
+      <c r="C265" s="115"/>
+      <c r="D265" s="115"/>
+      <c r="E265" s="115"/>
+      <c r="F265" s="115"/>
+      <c r="G265" s="116"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="30"/>
-      <c r="B266" s="32"/>
-      <c r="C266" s="36"/>
+      <c r="B266" s="31"/>
+      <c r="C266" s="35"/>
       <c r="D266" s="30"/>
-      <c r="E266" s="61"/>
-      <c r="F266" s="61"/>
-      <c r="G266" s="30"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="28"/>
+    </row>
+    <row r="267" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B267" s="47"/>
+      <c r="C267" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E267" s="48"/>
+      <c r="F267" s="48"/>
+      <c r="G267" s="46"/>
+    </row>
+    <row r="268" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B268" s="31">
+        <v>479</v>
+      </c>
+      <c r="C268" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E268" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F268" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="G268" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B269" s="31">
+        <v>142</v>
+      </c>
+      <c r="C269" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E269" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F269" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G269" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B270" s="114" t="s">
+        <v>344</v>
+      </c>
+      <c r="C270" s="115"/>
+      <c r="D270" s="115"/>
+      <c r="E270" s="115"/>
+      <c r="F270" s="115"/>
+      <c r="G270" s="116"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="30"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="30"/>
+      <c r="E271" s="60"/>
+      <c r="F271" s="60"/>
+      <c r="G271" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="B265:G265"/>
+    <mergeCell ref="B270:G270"/>
+    <mergeCell ref="B235:G235"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="B250:G250"/>
+    <mergeCell ref="B254:G254"/>
+    <mergeCell ref="B260:G260"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B204:G204"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
     <mergeCell ref="B94:G94"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B32:G32"/>
@@ -7866,40 +8002,8 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B260:G260"/>
-    <mergeCell ref="B265:G265"/>
-    <mergeCell ref="B230:G230"/>
-    <mergeCell ref="B238:G238"/>
-    <mergeCell ref="B245:G245"/>
-    <mergeCell ref="B249:G249"/>
-    <mergeCell ref="B255:G255"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -7910,7 +8014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E5C590-A8B0-4D05-8C32-D7237AC1F52C}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
@@ -7920,203 +8024,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="96" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="96" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="96" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="131" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="96" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="96" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="131" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="96" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="131" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="96" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="96" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="96" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="96" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="96" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="96" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="96" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="96" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="96" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="96" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="131" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="96" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="96" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="131" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="96" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="131" t="s">
-        <v>337</v>
-      </c>
-    </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="131" t="s">
-        <v>556</v>
+      <c r="A32" s="96" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="96" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="96" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="96" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="131" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="96" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131" t="s">
-        <v>343</v>
-      </c>
-    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="132" t="s">
-        <v>554</v>
+      <c r="A38" s="97" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8140,229 +8244,229 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" s="30"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="30"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" s="30"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="30"/>
     </row>
@@ -8498,7 +8602,7 @@
       <c r="C26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -8506,21 +8610,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8764,6 +8868,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B6EFCA8-874E-4019-8C33-88CB8C8F375D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -8777,14 +8889,6 @@
     <ds:schemaRef ds:uri="e95059ac-d84d-431f-ad54-803076f82fd1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
